--- a/combined.df.xlsx
+++ b/combined.df.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="0" windowWidth="23920" windowHeight="13060" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="23920" windowHeight="13120" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="210">
   <si>
     <t>Rnd</t>
   </si>
@@ -39,45 +39,18 @@
     <t>Age</t>
   </si>
   <si>
-    <t>To</t>
-  </si>
-  <si>
     <t>AP1</t>
   </si>
   <si>
     <t>PB</t>
   </si>
   <si>
-    <t>St</t>
-  </si>
-  <si>
     <t>CarAV</t>
   </si>
   <si>
     <t>DrAV</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>Cmp</t>
-  </si>
-  <si>
-    <t>Att</t>
-  </si>
-  <si>
-    <t>Yds</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>Int</t>
-  </si>
-  <si>
-    <t>Rec</t>
-  </si>
-  <si>
     <t>College/Univ</t>
   </si>
   <si>
@@ -105,21 +78,6 @@
     <t>3Cone</t>
   </si>
   <si>
-    <t>Pct</t>
-  </si>
-  <si>
-    <t>Y/A</t>
-  </si>
-  <si>
-    <t>AY/A</t>
-  </si>
-  <si>
-    <t>Rate</t>
-  </si>
-  <si>
-    <t>Avg</t>
-  </si>
-  <si>
     <t>SFO</t>
   </si>
   <si>
@@ -348,9 +306,6 @@
     <t>Mississippi</t>
   </si>
   <si>
-    <t>*4.90</t>
-  </si>
-  <si>
     <t>Larry Fitzgerald</t>
   </si>
   <si>
@@ -366,9 +321,6 @@
     <t>North Carolina St.</t>
   </si>
   <si>
-    <t>*5.08</t>
-  </si>
-  <si>
     <t>Roy Williams</t>
   </si>
   <si>
@@ -390,9 +342,6 @@
     <t>Miami (OH)</t>
   </si>
   <si>
-    <t>*4.75</t>
-  </si>
-  <si>
     <t>Lee Evans</t>
   </si>
   <si>
@@ -423,9 +372,6 @@
     <t>Chris Perry</t>
   </si>
   <si>
-    <t>*4.55</t>
-  </si>
-  <si>
     <t>Michael Jenkins</t>
   </si>
   <si>
@@ -435,9 +381,6 @@
     <t>Virginia Tech</t>
   </si>
   <si>
-    <t>*4.38</t>
-  </si>
-  <si>
     <t>Rashaun Woods</t>
   </si>
   <si>
@@ -610,6 +553,102 @@
   </si>
   <si>
     <t>Willie Reid\ReidWi00</t>
+  </si>
+  <si>
+    <t>Career Length</t>
+  </si>
+  <si>
+    <t>Years Starter</t>
+  </si>
+  <si>
+    <t>NFL G</t>
+  </si>
+  <si>
+    <t>NFL Cmp</t>
+  </si>
+  <si>
+    <t>NFL Att</t>
+  </si>
+  <si>
+    <t>NFL Pass Yds</t>
+  </si>
+  <si>
+    <t>NFL Pass TD</t>
+  </si>
+  <si>
+    <t>NFL Int</t>
+  </si>
+  <si>
+    <t>NFL Rush Att</t>
+  </si>
+  <si>
+    <t>NFL Rush Yds</t>
+  </si>
+  <si>
+    <t>NFL Rush TD</t>
+  </si>
+  <si>
+    <t>NFL Rec</t>
+  </si>
+  <si>
+    <t>NFL Rec Yds</t>
+  </si>
+  <si>
+    <t>NFL Rec TD</t>
+  </si>
+  <si>
+    <t>NCAA G</t>
+  </si>
+  <si>
+    <t>NCAA Cmp</t>
+  </si>
+  <si>
+    <t>NCAA Pass Att</t>
+  </si>
+  <si>
+    <t>NCAA Pass Pct</t>
+  </si>
+  <si>
+    <t>NCAA Pass Yds</t>
+  </si>
+  <si>
+    <t>NCAA Pass Y/A</t>
+  </si>
+  <si>
+    <t>NCAA Pass AY/A</t>
+  </si>
+  <si>
+    <t>NCAA Pass TD</t>
+  </si>
+  <si>
+    <t>NCAA Pass Int</t>
+  </si>
+  <si>
+    <t>NCAA Pass Rate</t>
+  </si>
+  <si>
+    <t>NCAA Rec</t>
+  </si>
+  <si>
+    <t>NCAA Rec Yds</t>
+  </si>
+  <si>
+    <t>NCAA Avg</t>
+  </si>
+  <si>
+    <t>NCAA Rec TD</t>
+  </si>
+  <si>
+    <t>NCAA Rush Att</t>
+  </si>
+  <si>
+    <t>NCAA Rush Yds</t>
+  </si>
+  <si>
+    <t>NCAA Rush Avg</t>
+  </si>
+  <si>
+    <t>NCAA RushTD</t>
   </si>
 </sst>
 </file>
@@ -980,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1006,139 +1045,139 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O1" t="s">
+        <v>182</v>
+      </c>
+      <c r="P1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>184</v>
+      </c>
+      <c r="R1" t="s">
+        <v>185</v>
+      </c>
+      <c r="S1" t="s">
+        <v>186</v>
+      </c>
+      <c r="T1" t="s">
+        <v>187</v>
+      </c>
+      <c r="U1" t="s">
+        <v>188</v>
+      </c>
+      <c r="V1" t="s">
+        <v>189</v>
+      </c>
+      <c r="W1" t="s">
+        <v>190</v>
+      </c>
+      <c r="X1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Z1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AA1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="AB1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AC1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="AD1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AE1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AF1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="AG1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>27</v>
-      </c>
       <c r="AH1" t="s">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="AI1" t="s">
-        <v>13</v>
+        <v>193</v>
       </c>
       <c r="AJ1" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="AK1" t="s">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="AL1" t="s">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c r="AM1" t="s">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="AN1" t="s">
-        <v>30</v>
+        <v>198</v>
       </c>
       <c r="AO1" t="s">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="AP1" t="s">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="AQ1" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="AR1" t="s">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="AS1" t="s">
-        <v>15</v>
+        <v>203</v>
       </c>
       <c r="AT1" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="AU1" t="s">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="AV1" t="s">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="AW1" t="s">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c r="AX1" t="s">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="AY1" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:51">
@@ -1149,19 +1188,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F2">
         <v>23</v>
       </c>
       <c r="G2">
-        <v>2016</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1203,7 +1242,7 @@
         <v>5</v>
       </c>
       <c r="Y2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="Z2">
         <v>77</v>
@@ -1211,8 +1250,8 @@
       <c r="AA2">
         <v>221</v>
       </c>
-      <c r="AB2" t="s">
-        <v>109</v>
+      <c r="AB2">
+        <v>4.9000000000000004</v>
       </c>
       <c r="AH2">
         <v>43</v>
@@ -1253,19 +1292,19 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F3">
         <v>21</v>
       </c>
       <c r="G3">
-        <v>2016</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1319,7 +1358,7 @@
         <v>103</v>
       </c>
       <c r="Y3" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="Z3">
         <v>75</v>
@@ -1366,19 +1405,19 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>22</v>
       </c>
       <c r="G4">
-        <v>2016</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1429,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="Z4">
         <v>77</v>
@@ -1437,8 +1476,8 @@
       <c r="AA4">
         <v>229</v>
       </c>
-      <c r="AB4" t="s">
-        <v>115</v>
+      <c r="AB4">
+        <v>5.08</v>
       </c>
       <c r="AH4">
         <v>49</v>
@@ -1479,19 +1518,19 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F5">
         <v>22</v>
       </c>
       <c r="G5">
-        <v>2011</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1545,7 +1584,7 @@
         <v>44</v>
       </c>
       <c r="Y5" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="Z5">
         <v>74</v>
@@ -1592,19 +1631,19 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F6">
         <v>21</v>
       </c>
       <c r="G6">
-        <v>2008</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1643,7 +1682,7 @@
         <v>18</v>
       </c>
       <c r="Y6" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="Z6">
         <v>76</v>
@@ -1699,19 +1738,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F7">
         <v>22</v>
       </c>
       <c r="G7">
-        <v>2016</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1765,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="Z7">
         <v>77</v>
@@ -1773,8 +1812,8 @@
       <c r="AA7">
         <v>241</v>
       </c>
-      <c r="AB7" t="s">
-        <v>123</v>
+      <c r="AB7">
+        <v>4.75</v>
       </c>
       <c r="AH7">
         <v>38</v>
@@ -1815,19 +1854,19 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F8">
         <v>23</v>
       </c>
       <c r="G8">
-        <v>2011</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1881,7 +1920,7 @@
         <v>43</v>
       </c>
       <c r="Y8" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="Z8">
         <v>71</v>
@@ -1934,19 +1973,19 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F9">
         <v>21</v>
       </c>
       <c r="G9">
-        <v>2011</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2000,7 +2039,7 @@
         <v>10</v>
       </c>
       <c r="Y9" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="Z9">
         <v>75</v>
@@ -2059,19 +2098,19 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F10">
         <v>23</v>
       </c>
       <c r="G10">
-        <v>2011</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2116,7 +2155,7 @@
         <v>3</v>
       </c>
       <c r="Y10" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="Z10">
         <v>74</v>
@@ -2172,19 +2211,19 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F11">
         <v>21</v>
       </c>
       <c r="G11">
-        <v>2015</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2238,7 +2277,7 @@
         <v>9</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Z11">
         <v>73</v>
@@ -2297,19 +2336,19 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F12">
         <v>22</v>
       </c>
       <c r="G12">
-        <v>2008</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2348,7 +2387,7 @@
         <v>2</v>
       </c>
       <c r="Y12" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="Z12">
         <v>73</v>
@@ -2356,8 +2395,8 @@
       <c r="AA12">
         <v>220</v>
       </c>
-      <c r="AB12" t="s">
-        <v>134</v>
+      <c r="AB12">
+        <v>4.55</v>
       </c>
       <c r="AC12">
         <v>19</v>
@@ -2398,19 +2437,19 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F13">
         <v>22</v>
       </c>
       <c r="G13">
-        <v>2012</v>
+        <v>9</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2449,7 +2488,7 @@
         <v>25</v>
       </c>
       <c r="Y13" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="Z13">
         <v>76</v>
@@ -2493,19 +2532,19 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F14">
         <v>22</v>
       </c>
       <c r="G14">
-        <v>2008</v>
+        <v>5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2544,7 +2583,7 @@
         <v>3</v>
       </c>
       <c r="Y14" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="Z14">
         <v>72</v>
@@ -2552,8 +2591,8 @@
       <c r="AA14">
         <v>227</v>
       </c>
-      <c r="AB14" t="s">
-        <v>138</v>
+      <c r="AB14">
+        <v>4.38</v>
       </c>
       <c r="AD14">
         <v>38</v>
@@ -2594,19 +2633,19 @@
         <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F15">
         <v>23</v>
       </c>
       <c r="G15">
-        <v>2004</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2636,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="Y15" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Z15">
         <v>74</v>
@@ -2683,19 +2722,19 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F16">
         <v>23</v>
       </c>
       <c r="G16">
-        <v>2008</v>
+        <v>5</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -2734,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Z16">
         <v>71</v>
@@ -2790,19 +2829,19 @@
         <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F17">
         <v>23</v>
       </c>
       <c r="G17">
-        <v>2010</v>
+        <v>7</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2841,7 +2880,7 @@
         <v>2</v>
       </c>
       <c r="Y17" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="Z17">
         <v>70</v>
@@ -2900,19 +2939,19 @@
         <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F18">
         <v>22</v>
       </c>
       <c r="G18">
-        <v>2012</v>
+        <v>9</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2951,7 +2990,7 @@
         <v>20</v>
       </c>
       <c r="Y18" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="Z18">
         <v>71</v>
@@ -2998,19 +3037,19 @@
         <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F19">
         <v>22</v>
       </c>
       <c r="G19">
-        <v>2005</v>
+        <v>2</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -3049,7 +3088,16 @@
         <v>1</v>
       </c>
       <c r="Y19" t="s">
-        <v>147</v>
+        <v>128</v>
+      </c>
+      <c r="Z19">
+        <v>73</v>
+      </c>
+      <c r="AA19">
+        <v>188</v>
+      </c>
+      <c r="AB19">
+        <v>4.45</v>
       </c>
       <c r="AH19">
         <v>47</v>
@@ -3087,19 +3135,19 @@
         <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F20">
         <v>23</v>
       </c>
       <c r="G20">
-        <v>2013</v>
+        <v>10</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -3138,7 +3186,7 @@
         <v>3</v>
       </c>
       <c r="Y20" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="Z20">
         <v>73</v>
@@ -3185,19 +3233,19 @@
         <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F21">
         <v>22</v>
       </c>
       <c r="G21">
-        <v>2011</v>
+        <v>8</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -3236,7 +3284,7 @@
         <v>8</v>
       </c>
       <c r="Y21" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Z21">
         <v>73</v>
@@ -3283,19 +3331,19 @@
         <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F22">
         <v>22</v>
       </c>
       <c r="G22">
-        <v>2004</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -3325,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="Z22">
         <v>75</v>
@@ -3372,19 +3420,19 @@
         <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F23">
         <v>23</v>
       </c>
       <c r="G23">
-        <v>2011</v>
+        <v>8</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -3423,7 +3471,7 @@
         <v>24</v>
       </c>
       <c r="Y23" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="Z23">
         <v>73</v>
@@ -3482,19 +3530,19 @@
         <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F24">
         <v>22</v>
       </c>
       <c r="G24">
-        <v>2008</v>
+        <v>5</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -3524,7 +3572,7 @@
         <v>4</v>
       </c>
       <c r="Y24" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="Z24">
         <v>73</v>
@@ -3577,19 +3625,19 @@
         <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F25">
         <v>23</v>
       </c>
       <c r="G25">
-        <v>2016</v>
+        <v>10</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -3643,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="Z25">
         <v>78</v>
@@ -3705,19 +3753,19 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F26">
         <v>21</v>
       </c>
       <c r="G26">
-        <v>2016</v>
+        <v>10</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -3771,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="Z26">
         <v>76</v>
@@ -3857,19 +3905,19 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F27">
         <v>23</v>
       </c>
       <c r="G27">
-        <v>2014</v>
+        <v>10</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3923,7 +3971,7 @@
         <v>2</v>
       </c>
       <c r="Y27" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="Z27">
         <v>73</v>
@@ -3985,19 +4033,19 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F28">
         <v>22</v>
       </c>
       <c r="G28">
-        <v>2012</v>
+        <v>8</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -4051,7 +4099,7 @@
         <v>40</v>
       </c>
       <c r="Y28" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="Z28">
         <v>75</v>
@@ -4110,19 +4158,19 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F29">
         <v>22</v>
       </c>
       <c r="G29">
-        <v>2012</v>
+        <v>8</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -4161,7 +4209,7 @@
         <v>1</v>
       </c>
       <c r="Y29" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="Z29">
         <v>70</v>
@@ -4220,19 +4268,19 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F30">
         <v>23</v>
       </c>
       <c r="G30">
-        <v>2011</v>
+        <v>7</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -4271,7 +4319,7 @@
         <v>4</v>
       </c>
       <c r="Y30" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="Z30">
         <v>71</v>
@@ -4333,19 +4381,19 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F31">
         <v>22</v>
       </c>
       <c r="G31">
-        <v>2009</v>
+        <v>5</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -4384,7 +4432,7 @@
         <v>4</v>
       </c>
       <c r="Y31" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="Z31">
         <v>74</v>
@@ -4440,19 +4488,19 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F32">
         <v>21</v>
       </c>
       <c r="G32">
-        <v>2011</v>
+        <v>7</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -4491,7 +4539,7 @@
         <v>5</v>
       </c>
       <c r="Y32" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Z32">
         <v>77</v>
@@ -4550,19 +4598,19 @@
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F33">
         <v>23</v>
       </c>
       <c r="G33">
-        <v>2011</v>
+        <v>7</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -4616,7 +4664,7 @@
         <v>14</v>
       </c>
       <c r="Y33" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="Z33">
         <v>71</v>
@@ -4675,19 +4723,19 @@
         <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F34">
         <v>21</v>
       </c>
       <c r="G34">
-        <v>2016</v>
+        <v>10</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -4741,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="Z34">
         <v>74</v>
@@ -4827,19 +4875,19 @@
         <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F35">
         <v>23</v>
       </c>
       <c r="G35">
-        <v>2014</v>
+        <v>10</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -4884,7 +4932,7 @@
         <v>6</v>
       </c>
       <c r="Y35" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="Z35">
         <v>77</v>
@@ -4967,19 +5015,19 @@
         <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F36">
         <v>23</v>
       </c>
       <c r="G36">
-        <v>2015</v>
+        <v>10</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -5018,7 +5066,7 @@
         <v>63</v>
       </c>
       <c r="Y36" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="Z36">
         <v>73</v>
@@ -5080,19 +5128,19 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F37">
         <v>24</v>
       </c>
       <c r="G37">
-        <v>2009</v>
+        <v>5</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -5131,7 +5179,7 @@
         <v>17</v>
       </c>
       <c r="Y37" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="Z37">
         <v>74</v>
@@ -5190,19 +5238,19 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F38">
         <v>23</v>
       </c>
       <c r="G38">
-        <v>2009</v>
+        <v>5</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -5256,7 +5304,7 @@
         <v>9</v>
       </c>
       <c r="Y38" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="Z38">
         <v>74</v>
@@ -5315,19 +5363,19 @@
         <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F39">
         <v>22</v>
       </c>
       <c r="G39">
-        <v>2008</v>
+        <v>4</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -5381,7 +5429,7 @@
         <v>2</v>
       </c>
       <c r="Y39" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="Z39">
         <v>69</v>
@@ -5443,19 +5491,19 @@
         <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D40" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F40">
         <v>22</v>
       </c>
       <c r="G40">
-        <v>2006</v>
+        <v>2</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -5494,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="Z40">
         <v>74</v>
@@ -5553,19 +5601,19 @@
         <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D41" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F41">
         <v>23</v>
       </c>
       <c r="G41">
-        <v>2012</v>
+        <v>8</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -5619,7 +5667,7 @@
         <v>7</v>
       </c>
       <c r="Y41" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="Z41">
         <v>70</v>
@@ -5678,19 +5726,19 @@
         <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F42">
         <v>22</v>
       </c>
       <c r="G42">
-        <v>2005</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -5720,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="Z42">
         <v>73</v>
@@ -5779,19 +5827,19 @@
         <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F43">
         <v>22</v>
       </c>
       <c r="G43">
-        <v>2016</v>
+        <v>10</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -5830,7 +5878,7 @@
         <v>57</v>
       </c>
       <c r="Y43" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="Z43">
         <v>77</v>
@@ -5892,19 +5940,19 @@
         <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F44">
         <v>22</v>
       </c>
       <c r="G44">
-        <v>2016</v>
+        <v>10</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -5943,7 +5991,7 @@
         <v>15</v>
       </c>
       <c r="Y44" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="Z44">
         <v>69</v>
@@ -6002,19 +6050,19 @@
         <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F45">
         <v>24</v>
       </c>
       <c r="G45">
-        <v>2009</v>
+        <v>5</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -6059,7 +6107,7 @@
         <v>4</v>
       </c>
       <c r="Y45" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="Z45">
         <v>76</v>
@@ -6145,19 +6193,19 @@
         <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D46" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F46">
         <v>22</v>
       </c>
       <c r="G46">
-        <v>2014</v>
+        <v>10</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -6196,7 +6244,7 @@
         <v>1</v>
       </c>
       <c r="Y46" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="Z46">
         <v>73</v>
@@ -6255,19 +6303,19 @@
         <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D47" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F47">
         <v>23</v>
       </c>
       <c r="G47">
-        <v>2008</v>
+        <v>4</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -6312,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="Y47" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="Z47">
         <v>78</v>
@@ -6395,19 +6443,19 @@
         <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D48" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F48">
         <v>25</v>
       </c>
       <c r="G48">
-        <v>2007</v>
+        <v>3</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -6446,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="Y48" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Z48">
         <v>70</v>
@@ -6508,19 +6556,19 @@
         <v>77</v>
       </c>
       <c r="C49" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F49">
         <v>22</v>
       </c>
       <c r="G49">
-        <v>2009</v>
+        <v>5</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -6559,7 +6607,7 @@
         <v>1</v>
       </c>
       <c r="Y49" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="Z49">
         <v>68</v>
@@ -6621,19 +6669,19 @@
         <v>83</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F50">
         <v>22</v>
       </c>
       <c r="G50">
-        <v>2009</v>
+        <v>5</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -6663,7 +6711,7 @@
         <v>21</v>
       </c>
       <c r="Y50" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="Z50">
         <v>76</v>
@@ -6719,17 +6767,20 @@
         <v>85</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D51" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F51">
         <v>23</v>
       </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
       <c r="H51">
         <v>0</v>
       </c>
@@ -6740,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="Y51" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="Z51">
         <v>76</v>
@@ -6826,19 +6877,19 @@
         <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D52" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F52">
         <v>22</v>
       </c>
       <c r="G52">
-        <v>2009</v>
+        <v>5</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -6877,7 +6928,7 @@
         <v>9</v>
       </c>
       <c r="Y52" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="Z52">
         <v>74</v>
@@ -6936,17 +6987,20 @@
         <v>101</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E53" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F53">
         <v>22</v>
       </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
       <c r="H53">
         <v>0</v>
       </c>
@@ -6957,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="Y53" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="Z53">
         <v>73</v>
@@ -7019,19 +7073,19 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="D54" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="E54" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F54">
         <v>21</v>
       </c>
       <c r="G54">
-        <v>2016</v>
+        <v>10</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -7085,7 +7139,7 @@
         <v>18</v>
       </c>
       <c r="Y54" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Z54">
         <v>71</v>
@@ -7141,19 +7195,19 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D55" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F55">
         <v>23</v>
       </c>
       <c r="G55">
-        <v>2011</v>
+        <v>6</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -7198,7 +7252,7 @@
         <v>12</v>
       </c>
       <c r="Y55" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="Z55">
         <v>77</v>
@@ -7272,19 +7326,19 @@
         <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D56" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E56" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F56">
         <v>23</v>
       </c>
       <c r="G56">
-        <v>2012</v>
+        <v>7</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -7329,7 +7383,7 @@
         <v>2</v>
       </c>
       <c r="Y56" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Z56">
         <v>77</v>
@@ -7403,19 +7457,19 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D57" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="E57" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F57">
         <v>23</v>
       </c>
       <c r="G57">
-        <v>2016</v>
+        <v>10</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -7460,7 +7514,7 @@
         <v>9</v>
       </c>
       <c r="Y57" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="Z57">
         <v>75</v>
@@ -7531,19 +7585,19 @@
         <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="D58" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="E58" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F58">
         <v>21</v>
       </c>
       <c r="G58">
-        <v>2010</v>
+        <v>5</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -7582,7 +7636,7 @@
         <v>1</v>
       </c>
       <c r="Y58" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="Z58">
         <v>72</v>
@@ -7638,19 +7692,19 @@
         <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D59" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F59">
         <v>22</v>
       </c>
       <c r="G59">
-        <v>2014</v>
+        <v>9</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -7704,7 +7758,7 @@
         <v>36</v>
       </c>
       <c r="Y59" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="Z59">
         <v>71</v>
@@ -7763,19 +7817,19 @@
         <v>27</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D60" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F60">
         <v>23</v>
       </c>
       <c r="G60">
-        <v>2016</v>
+        <v>10</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -7814,7 +7868,7 @@
         <v>8</v>
       </c>
       <c r="Y60" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="Z60">
         <v>69</v>
@@ -7867,19 +7921,19 @@
         <v>30</v>
       </c>
       <c r="C61" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="D61" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E61" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F61">
         <v>23</v>
       </c>
       <c r="G61">
-        <v>2011</v>
+        <v>6</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -7933,7 +7987,7 @@
         <v>9</v>
       </c>
       <c r="Y61" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="Z61">
         <v>71</v>
@@ -7995,19 +8049,19 @@
         <v>36</v>
       </c>
       <c r="C62" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="D62" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F62">
         <v>21</v>
       </c>
       <c r="G62">
-        <v>2008</v>
+        <v>3</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -8046,7 +8100,7 @@
         <v>3</v>
       </c>
       <c r="Y62" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="Z62">
         <v>73</v>
@@ -8105,19 +8159,19 @@
         <v>44</v>
       </c>
       <c r="C63" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D63" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F63">
         <v>22</v>
       </c>
       <c r="G63">
-        <v>2009</v>
+        <v>4</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -8156,7 +8210,7 @@
         <v>3</v>
       </c>
       <c r="Y63" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="Z63">
         <v>68</v>
@@ -8203,19 +8257,19 @@
         <v>45</v>
       </c>
       <c r="C64" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D64" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E64" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F64">
         <v>21</v>
       </c>
       <c r="G64">
-        <v>2009</v>
+        <v>4</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -8254,7 +8308,7 @@
         <v>0</v>
       </c>
       <c r="Y64" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Z64">
         <v>72</v>
@@ -8304,19 +8358,19 @@
         <v>49</v>
       </c>
       <c r="C65" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D65" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F65">
         <v>23</v>
       </c>
       <c r="G65">
-        <v>2016</v>
+        <v>10</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -8370,7 +8424,7 @@
         <v>0</v>
       </c>
       <c r="Y65" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="Z65">
         <v>74</v>
@@ -8444,19 +8498,19 @@
         <v>52</v>
       </c>
       <c r="C66" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D66" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F66">
         <v>23</v>
       </c>
       <c r="G66">
-        <v>2015</v>
+        <v>10</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -8495,7 +8549,7 @@
         <v>64</v>
       </c>
       <c r="Y66" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="Z66">
         <v>71</v>
@@ -8554,19 +8608,19 @@
         <v>60</v>
       </c>
       <c r="C67" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D67" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="E67" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F67">
         <v>21</v>
       </c>
       <c r="G67">
-        <v>2014</v>
+        <v>9</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -8620,7 +8674,7 @@
         <v>11</v>
       </c>
       <c r="Y67" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="Z67">
         <v>67</v>
@@ -8682,19 +8736,19 @@
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D68" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="E68" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F68">
         <v>23</v>
       </c>
       <c r="G68">
-        <v>2015</v>
+        <v>10</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -8739,7 +8793,7 @@
         <v>6</v>
       </c>
       <c r="Y68" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="Z68">
         <v>74</v>
@@ -8813,19 +8867,19 @@
         <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D69" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F69">
         <v>22</v>
       </c>
       <c r="G69">
-        <v>2007</v>
+        <v>2</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -8864,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="Y69" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="Z69">
         <v>69</v>
@@ -8926,19 +8980,19 @@
         <v>78</v>
       </c>
       <c r="C70" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D70" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F70">
         <v>22</v>
       </c>
       <c r="G70">
-        <v>2006</v>
+        <v>1</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -8968,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="Y70" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="Z70">
         <v>74</v>
@@ -9027,19 +9081,19 @@
         <v>79</v>
       </c>
       <c r="C71" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D71" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="E71" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F71">
         <v>23</v>
       </c>
       <c r="G71">
-        <v>2011</v>
+        <v>6</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -9093,7 +9147,7 @@
         <v>3</v>
       </c>
       <c r="Y71" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="Z71">
         <v>73</v>
@@ -9155,19 +9209,19 @@
         <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D72" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="E72" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F72">
         <v>24</v>
       </c>
       <c r="G72">
-        <v>2016</v>
+        <v>10</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -9221,7 +9275,7 @@
         <v>0</v>
       </c>
       <c r="Y72" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="Z72">
         <v>77</v>
@@ -9307,19 +9361,19 @@
         <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D73" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F73">
         <v>22</v>
       </c>
       <c r="G73">
-        <v>2014</v>
+        <v>9</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -9349,7 +9403,7 @@
         <v>7</v>
       </c>
       <c r="Y73" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="Z73">
         <v>74</v>
@@ -9393,19 +9447,19 @@
         <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D74" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F74">
         <v>22</v>
       </c>
       <c r="G74">
-        <v>2007</v>
+        <v>2</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -9435,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="Y74" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="Z74">
         <v>70</v>
@@ -9497,19 +9551,19 @@
         <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="D75" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E75" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F75">
         <v>23</v>
       </c>
       <c r="G75">
-        <v>2010</v>
+        <v>5</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -9554,7 +9608,7 @@
         <v>0</v>
       </c>
       <c r="Y75" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="Z75">
         <v>75</v>
@@ -9628,19 +9682,19 @@
         <v>90</v>
       </c>
       <c r="C76" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D76" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F76">
         <v>21</v>
       </c>
       <c r="G76">
-        <v>2012</v>
+        <v>7</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -9679,7 +9733,7 @@
         <v>3</v>
       </c>
       <c r="Y76" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="Z76">
         <v>77</v>
@@ -9738,19 +9792,19 @@
         <v>95</v>
       </c>
       <c r="C77" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D77" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F77">
         <v>24</v>
       </c>
       <c r="G77">
-        <v>2007</v>
+        <v>2</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -9780,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="Y77" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="Z77">
         <v>71</v>

--- a/combined.df.xlsx
+++ b/combined.df.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="257">
   <si>
     <t>Rnd</t>
   </si>
@@ -649,13 +649,154 @@
   </si>
   <si>
     <t>NCAA RushTD</t>
+  </si>
+  <si>
+    <t>JaMarcus Russell</t>
+  </si>
+  <si>
+    <t>Calvin Johnson</t>
+  </si>
+  <si>
+    <t>Georgia Tech</t>
+  </si>
+  <si>
+    <t>Adrian Peterson</t>
+  </si>
+  <si>
+    <t>Ted Ginn</t>
+  </si>
+  <si>
+    <t>Marshawn Lynch</t>
+  </si>
+  <si>
+    <t>Brady Quinn</t>
+  </si>
+  <si>
+    <t>Dwayne Bowe</t>
+  </si>
+  <si>
+    <t>Robert Meachem</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Craig Davis</t>
+  </si>
+  <si>
+    <t>Anthony Gonzalez</t>
+  </si>
+  <si>
+    <t>Kevin Kolb</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>John Beck</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>Drew Stanton</t>
+  </si>
+  <si>
+    <t>Michigan St.</t>
+  </si>
+  <si>
+    <t>Sidney Rice</t>
+  </si>
+  <si>
+    <t>Dwayne Jarrett</t>
+  </si>
+  <si>
+    <t>Kenny Irons</t>
+  </si>
+  <si>
+    <t>Chris Henry</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Steve Smith</t>
+  </si>
+  <si>
+    <t>Brian Leonard</t>
+  </si>
+  <si>
+    <t>Rutgers</t>
+  </si>
+  <si>
+    <t>Brandon Jackson</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Lorenzo Booker</t>
+  </si>
+  <si>
+    <t>Yamon Figurs</t>
+  </si>
+  <si>
+    <t>Kansas St.</t>
+  </si>
+  <si>
+    <t>Laurent Robinson</t>
+  </si>
+  <si>
+    <t>Illinois St.</t>
+  </si>
+  <si>
+    <t>Jason Hill</t>
+  </si>
+  <si>
+    <t>James Jones</t>
+  </si>
+  <si>
+    <t>San Jose St.</t>
+  </si>
+  <si>
+    <t>Mike Sims-Walker</t>
+  </si>
+  <si>
+    <t>Central Florida</t>
+  </si>
+  <si>
+    <t>Paul Williams</t>
+  </si>
+  <si>
+    <t>Tony Hunt</t>
+  </si>
+  <si>
+    <t>Penn St.</t>
+  </si>
+  <si>
+    <t>Trent Edwards</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>Garrett Wolfe</t>
+  </si>
+  <si>
+    <t>Northern Illinois</t>
+  </si>
+  <si>
+    <t>Johnnie Lee Higgins</t>
+  </si>
+  <si>
+    <t>Texas-El Paso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -663,16 +804,63 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -680,14 +868,109 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF747678"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF747678"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF747678"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF747678"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1017,13 +1300,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY77"/>
+  <dimension ref="A1:AY108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="AI109" sqref="AI109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="48" max="48" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:51">
       <c r="A1" t="s">
@@ -1241,6 +1527,15 @@
       <c r="U2">
         <v>5</v>
       </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
       <c r="Y2" t="s">
         <v>94</v>
       </c>
@@ -1282,6 +1577,12 @@
       </c>
       <c r="AQ2">
         <v>137.69999999999999</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:51">
@@ -1372,6 +1673,9 @@
       <c r="AH3">
         <v>26</v>
       </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
       <c r="AR3">
         <v>161</v>
       </c>
@@ -1509,6 +1813,12 @@
       <c r="AQ4">
         <v>144.19999999999999</v>
       </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:51">
       <c r="A5">
@@ -1598,6 +1908,9 @@
       <c r="AH5">
         <v>48</v>
       </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
       <c r="AR5">
         <v>241</v>
       </c>
@@ -1663,6 +1976,9 @@
       <c r="M6">
         <v>79</v>
       </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
       <c r="S6">
         <v>11</v>
       </c>
@@ -1704,6 +2020,9 @@
       </c>
       <c r="AH6">
         <v>36</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
       <c r="AR6">
         <v>238</v>
@@ -1845,6 +2164,12 @@
       <c r="AQ7">
         <v>151.30000000000001</v>
       </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:51">
       <c r="A8">
@@ -1940,6 +2265,9 @@
       <c r="AH8">
         <v>44</v>
       </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
       <c r="AR8">
         <v>175</v>
       </c>
@@ -2065,6 +2393,9 @@
       <c r="AH9">
         <v>39</v>
       </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
       <c r="AR9">
         <v>182</v>
       </c>
@@ -2154,6 +2485,15 @@
       <c r="U10">
         <v>3</v>
       </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
       <c r="Y10" t="s">
         <v>112</v>
       </c>
@@ -2201,6 +2541,12 @@
       </c>
       <c r="AQ10">
         <v>129.80000000000001</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:51">
@@ -2303,6 +2649,9 @@
       <c r="AH11">
         <v>37</v>
       </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
       <c r="AR11">
         <v>66</v>
       </c>
@@ -2368,6 +2717,9 @@
       <c r="M12">
         <v>35</v>
       </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
       <c r="S12">
         <v>177</v>
       </c>
@@ -2403,6 +2755,9 @@
       </c>
       <c r="AH12">
         <v>45</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
       <c r="AR12">
         <v>64</v>
@@ -2469,6 +2824,9 @@
       <c r="M13">
         <v>130</v>
       </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
       <c r="S13">
         <v>2</v>
       </c>
@@ -2511,6 +2869,9 @@
       <c r="AH13">
         <v>38</v>
       </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
       <c r="AR13">
         <v>157</v>
       </c>
@@ -2522,6 +2883,9 @@
       </c>
       <c r="AU13">
         <v>16</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:51">
@@ -2564,6 +2928,9 @@
       <c r="M14">
         <v>64</v>
       </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
       <c r="S14">
         <v>795</v>
       </c>
@@ -2599,6 +2966,9 @@
       </c>
       <c r="AH14">
         <v>37</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
       <c r="AR14">
         <v>24</v>
@@ -2665,6 +3035,9 @@
       <c r="M15">
         <v>14</v>
       </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
       <c r="V15">
         <v>7</v>
       </c>
@@ -2701,6 +3074,9 @@
       <c r="AH15">
         <v>48</v>
       </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
       <c r="AR15">
         <v>293</v>
       </c>
@@ -2712,6 +3088,9 @@
       </c>
       <c r="AU15">
         <v>42</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:51">
@@ -2754,6 +3133,9 @@
       <c r="M16">
         <v>54</v>
       </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
       <c r="S16">
         <v>569</v>
       </c>
@@ -2795,6 +3177,9 @@
       </c>
       <c r="AH16">
         <v>41</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
       <c r="AR16">
         <v>36</v>
@@ -2861,6 +3246,9 @@
       <c r="M17">
         <v>94</v>
       </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
       <c r="S17">
         <v>1280</v>
       </c>
@@ -2905,6 +3293,9 @@
       </c>
       <c r="AH17">
         <v>45</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
       <c r="AR17">
         <v>28</v>
@@ -2971,6 +3362,9 @@
       <c r="M18">
         <v>124</v>
       </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
       <c r="S18">
         <v>18</v>
       </c>
@@ -3003,6 +3397,9 @@
       </c>
       <c r="AH18">
         <v>42</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
       <c r="AR18">
         <v>81</v>
@@ -3069,6 +3466,9 @@
       <c r="M19">
         <v>22</v>
       </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
       <c r="S19">
         <v>5</v>
       </c>
@@ -3101,6 +3501,9 @@
       </c>
       <c r="AH19">
         <v>47</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
       <c r="AR19">
         <v>272</v>
@@ -3167,6 +3570,9 @@
       <c r="M20">
         <v>131</v>
       </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
       <c r="S20">
         <v>272</v>
       </c>
@@ -3199,6 +3605,9 @@
       </c>
       <c r="AH20">
         <v>44</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
       <c r="AR20">
         <v>24</v>
@@ -3265,6 +3674,9 @@
       <c r="M21">
         <v>75</v>
       </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
       <c r="S21">
         <v>1</v>
       </c>
@@ -3297,6 +3709,9 @@
       </c>
       <c r="AH21">
         <v>50</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
       <c r="AR21">
         <v>207</v>
@@ -3363,6 +3778,9 @@
       <c r="M22">
         <v>2</v>
       </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
       <c r="V22">
         <v>0</v>
       </c>
@@ -3386,6 +3804,9 @@
       </c>
       <c r="AH22">
         <v>37</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
       <c r="AR22">
         <v>163</v>
@@ -3452,6 +3873,9 @@
       <c r="M23">
         <v>109</v>
       </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
       <c r="S23">
         <v>17</v>
       </c>
@@ -3496,6 +3920,9 @@
       </c>
       <c r="AH23">
         <v>46</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
       <c r="AR23">
         <v>191</v>
@@ -3562,6 +3989,9 @@
       <c r="M24">
         <v>46</v>
       </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
       <c r="V24">
         <v>37</v>
       </c>
@@ -3591,6 +4021,9 @@
       </c>
       <c r="AH24">
         <v>30</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
       <c r="AR24">
         <v>106</v>
@@ -3744,6 +4177,12 @@
       <c r="AQ25">
         <v>138.4</v>
       </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:51">
       <c r="A26">
@@ -4000,6 +4439,9 @@
       <c r="AH27">
         <v>48</v>
       </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
       <c r="AR27">
         <v>58</v>
       </c>
@@ -4125,6 +4567,9 @@
       <c r="AH28">
         <v>44</v>
       </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
       <c r="AR28">
         <v>252</v>
       </c>
@@ -4190,6 +4635,9 @@
       <c r="M29">
         <v>96</v>
       </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
       <c r="S29">
         <v>1600</v>
       </c>
@@ -4234,6 +4682,9 @@
       </c>
       <c r="AH29">
         <v>49</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
       <c r="AR29">
         <v>69</v>
@@ -4300,6 +4751,9 @@
       <c r="M30">
         <v>81</v>
       </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
       <c r="S30">
         <v>1055</v>
       </c>
@@ -4347,6 +4801,9 @@
       </c>
       <c r="AH30">
         <v>42</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
       <c r="AR30">
         <v>45</v>
@@ -4413,6 +4870,9 @@
       <c r="M31">
         <v>49</v>
       </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
       <c r="S31">
         <v>6</v>
       </c>
@@ -4454,6 +4914,9 @@
       </c>
       <c r="AH31">
         <v>34</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
       <c r="AR31">
         <v>91</v>
@@ -4520,6 +4983,9 @@
       <c r="M32">
         <v>56</v>
       </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
       <c r="S32">
         <v>1</v>
       </c>
@@ -4564,6 +5030,9 @@
       </c>
       <c r="AH32">
         <v>33</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
       <c r="AR32">
         <v>146</v>
@@ -4690,6 +5159,9 @@
       <c r="AH33">
         <v>51</v>
       </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
       <c r="AR33">
         <v>220</v>
       </c>
@@ -4931,6 +5403,15 @@
       <c r="U35">
         <v>6</v>
       </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
       <c r="Y35" t="s">
         <v>26</v>
       </c>
@@ -5047,6 +5528,9 @@
       <c r="M36">
         <v>171</v>
       </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
       <c r="S36">
         <v>9</v>
       </c>
@@ -5094,6 +5578,9 @@
       </c>
       <c r="AH36">
         <v>45</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
       <c r="AR36">
         <v>163</v>
@@ -5160,6 +5647,9 @@
       <c r="M37">
         <v>72</v>
       </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
       <c r="S37">
         <v>11</v>
       </c>
@@ -5204,6 +5694,9 @@
       </c>
       <c r="AH37">
         <v>52</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
       <c r="AR37">
         <v>144</v>
@@ -5330,6 +5823,9 @@
       <c r="AH38">
         <v>25</v>
       </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
       <c r="AR38">
         <v>34</v>
       </c>
@@ -5458,6 +5954,9 @@
       <c r="AH39">
         <v>25</v>
       </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
       <c r="AR39">
         <v>42</v>
       </c>
@@ -5523,6 +6022,9 @@
       <c r="M40">
         <v>9</v>
       </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
       <c r="S40">
         <v>8</v>
       </c>
@@ -5567,6 +6069,9 @@
       </c>
       <c r="AH40">
         <v>33</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
       <c r="AR40">
         <v>7</v>
@@ -5693,6 +6198,9 @@
       <c r="AH41">
         <v>36</v>
       </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
       <c r="AR41">
         <v>86</v>
       </c>
@@ -5758,6 +6266,9 @@
       <c r="M42">
         <v>3</v>
       </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
       <c r="V42">
         <v>5</v>
       </c>
@@ -5793,6 +6304,9 @@
       </c>
       <c r="AH42">
         <v>45</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
       <c r="AR42">
         <v>172</v>
@@ -5859,6 +6373,9 @@
       <c r="M43">
         <v>155</v>
       </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
       <c r="S43">
         <v>15</v>
       </c>
@@ -5906,6 +6423,9 @@
       </c>
       <c r="AH43">
         <v>22</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
       <c r="AR43">
         <v>146</v>
@@ -5972,6 +6492,9 @@
       <c r="M44">
         <v>173</v>
       </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
       <c r="S44">
         <v>2847</v>
       </c>
@@ -6016,6 +6539,9 @@
       </c>
       <c r="AH44">
         <v>28</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
       <c r="AR44">
         <v>23</v>
@@ -6106,6 +6632,15 @@
       <c r="U45">
         <v>4</v>
       </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
       <c r="Y45" t="s">
         <v>72</v>
       </c>
@@ -6225,6 +6760,9 @@
       <c r="M46">
         <v>92</v>
       </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
       <c r="S46">
         <v>3</v>
       </c>
@@ -6269,6 +6807,9 @@
       </c>
       <c r="AH46">
         <v>45</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
       <c r="AR46">
         <v>170</v>
@@ -6359,6 +6900,15 @@
       <c r="U47">
         <v>0</v>
       </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
       <c r="Y47" t="s">
         <v>78</v>
       </c>
@@ -6475,6 +7025,9 @@
       <c r="M48">
         <v>39</v>
       </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
       <c r="S48">
         <v>171</v>
       </c>
@@ -6522,6 +7075,9 @@
       </c>
       <c r="AH48">
         <v>30</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
       <c r="AR48">
         <v>11</v>
@@ -6588,6 +7144,9 @@
       <c r="M49">
         <v>38</v>
       </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
       <c r="S49">
         <v>204</v>
       </c>
@@ -6635,6 +7194,9 @@
       </c>
       <c r="AH49">
         <v>34</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
       <c r="AR49">
         <v>48</v>
@@ -6701,6 +7263,9 @@
       <c r="M50">
         <v>55</v>
       </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
       <c r="V50">
         <v>119</v>
       </c>
@@ -6733,6 +7298,9 @@
       </c>
       <c r="AH50">
         <v>23</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
       <c r="AR50">
         <v>93</v>
@@ -6790,6 +7358,18 @@
       <c r="J51">
         <v>0</v>
       </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
       <c r="Y51" t="s">
         <v>55</v>
       </c>
@@ -6909,6 +7489,9 @@
       <c r="M52">
         <v>59</v>
       </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
       <c r="S52">
         <v>6</v>
       </c>
@@ -6953,6 +7536,9 @@
       </c>
       <c r="AH52">
         <v>46</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
       <c r="AR52">
         <v>82</v>
@@ -7010,6 +7596,9 @@
       <c r="J53">
         <v>0</v>
       </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
       <c r="Y53" t="s">
         <v>92</v>
       </c>
@@ -7039,6 +7628,9 @@
       </c>
       <c r="AH53">
         <v>11</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
       <c r="AR53">
         <v>12</v>
@@ -7162,6 +7754,9 @@
       <c r="AH54">
         <v>39</v>
       </c>
+      <c r="AI54">
+        <v>0</v>
+      </c>
       <c r="AR54">
         <v>95</v>
       </c>
@@ -7564,6 +8159,18 @@
       <c r="AQ57">
         <v>125.9</v>
       </c>
+      <c r="AR57">
+        <v>0</v>
+      </c>
+      <c r="AS57">
+        <v>0</v>
+      </c>
+      <c r="AT57">
+        <v>0</v>
+      </c>
+      <c r="AU57">
+        <v>0</v>
+      </c>
       <c r="AV57">
         <v>453</v>
       </c>
@@ -7617,6 +8224,9 @@
       <c r="M58">
         <v>49</v>
       </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
       <c r="S58">
         <v>618</v>
       </c>
@@ -7658,6 +8268,9 @@
       </c>
       <c r="AH58">
         <v>36</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
       <c r="AR58">
         <v>21</v>
@@ -7728,7 +8341,7 @@
         <v>0</v>
       </c>
       <c r="O59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -7783,6 +8396,9 @@
       </c>
       <c r="AH59">
         <v>36</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
       <c r="AR59">
         <v>140</v>
@@ -7849,6 +8465,9 @@
       <c r="M60">
         <v>140</v>
       </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
       <c r="S60">
         <v>1707</v>
       </c>
@@ -7887,6 +8506,9 @@
       </c>
       <c r="AH60">
         <v>44</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
       <c r="AR60">
         <v>70</v>
@@ -7954,16 +8576,16 @@
         <v>78</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P61">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -8015,6 +8637,9 @@
       </c>
       <c r="AH61">
         <v>51</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
       <c r="AR61">
         <v>66</v>
@@ -8081,6 +8706,9 @@
       <c r="M62">
         <v>18</v>
       </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
       <c r="S62">
         <v>4</v>
       </c>
@@ -8125,6 +8753,9 @@
       </c>
       <c r="AH62">
         <v>37</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
       <c r="AR62">
         <v>120</v>
@@ -8191,6 +8822,9 @@
       <c r="M63">
         <v>37</v>
       </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
       <c r="S63">
         <v>1</v>
       </c>
@@ -8223,6 +8857,9 @@
       </c>
       <c r="AH63">
         <v>48</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
       <c r="AR63">
         <v>68</v>
@@ -8289,6 +8926,9 @@
       <c r="M64">
         <v>58</v>
       </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
       <c r="S64">
         <v>628</v>
       </c>
@@ -8324,6 +8964,9 @@
       </c>
       <c r="AH64">
         <v>39</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
       <c r="AR64">
         <v>31</v>
@@ -8530,6 +9173,9 @@
       <c r="M66">
         <v>143</v>
       </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
       <c r="S66">
         <v>1</v>
       </c>
@@ -8574,6 +9220,9 @@
       </c>
       <c r="AH66">
         <v>42</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
       <c r="AR66">
         <v>238</v>
@@ -8641,19 +9290,19 @@
         <v>126</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P67">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S67">
         <v>1847</v>
@@ -8702,6 +9351,9 @@
       </c>
       <c r="AH67">
         <v>36</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
       <c r="AR67">
         <v>64</v>
@@ -8846,6 +9498,18 @@
       <c r="AQ68">
         <v>64.099999999999994</v>
       </c>
+      <c r="AR68">
+        <v>0</v>
+      </c>
+      <c r="AS68">
+        <v>0</v>
+      </c>
+      <c r="AT68">
+        <v>0</v>
+      </c>
+      <c r="AU68">
+        <v>0</v>
+      </c>
       <c r="AV68">
         <v>21</v>
       </c>
@@ -8899,6 +9563,9 @@
       <c r="M69">
         <v>11</v>
       </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
       <c r="S69">
         <v>14</v>
       </c>
@@ -8946,6 +9613,9 @@
       </c>
       <c r="AH69">
         <v>13</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
       <c r="AR69">
         <v>53</v>
@@ -9012,6 +9682,9 @@
       <c r="M70">
         <v>4</v>
       </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
       <c r="V70">
         <v>2</v>
       </c>
@@ -9047,6 +9720,9 @@
       </c>
       <c r="AH70">
         <v>44</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
       <c r="AR70">
         <v>105</v>
@@ -9117,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="O71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -9126,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="R71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S71">
         <v>399</v>
@@ -9175,6 +9851,9 @@
       </c>
       <c r="AH71">
         <v>46</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
       <c r="AR71">
         <v>43</v>
@@ -9393,6 +10072,9 @@
       <c r="M73">
         <v>100</v>
       </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
       <c r="V73">
         <v>148</v>
       </c>
@@ -9426,6 +10108,9 @@
       <c r="AH73">
         <v>50</v>
       </c>
+      <c r="AI73">
+        <v>0</v>
+      </c>
       <c r="AR73">
         <v>258</v>
       </c>
@@ -9437,6 +10122,18 @@
       </c>
       <c r="AU73">
         <v>27</v>
+      </c>
+      <c r="AV73">
+        <v>0</v>
+      </c>
+      <c r="AW73">
+        <v>0</v>
+      </c>
+      <c r="AX73">
+        <v>0</v>
+      </c>
+      <c r="AY73">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:51">
@@ -9479,6 +10176,9 @@
       <c r="M74">
         <v>23</v>
       </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
       <c r="V74">
         <v>0</v>
       </c>
@@ -9517,6 +10217,9 @@
       </c>
       <c r="AH74">
         <v>52</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
       <c r="AR74">
         <v>202</v>
@@ -9661,6 +10364,18 @@
       <c r="AQ75">
         <v>128.4</v>
       </c>
+      <c r="AR75">
+        <v>0</v>
+      </c>
+      <c r="AS75">
+        <v>0</v>
+      </c>
+      <c r="AT75">
+        <v>0</v>
+      </c>
+      <c r="AU75">
+        <v>0</v>
+      </c>
       <c r="AV75">
         <v>183</v>
       </c>
@@ -9714,6 +10429,9 @@
       <c r="M76">
         <v>81</v>
       </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
       <c r="S76">
         <v>2</v>
       </c>
@@ -9759,6 +10477,9 @@
       <c r="AH76">
         <v>46</v>
       </c>
+      <c r="AI76">
+        <v>0</v>
+      </c>
       <c r="AR76">
         <v>130</v>
       </c>
@@ -9784,7 +10505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:51">
+    <row r="77" spans="1:51" ht="16" thickBot="1">
       <c r="A77">
         <v>3</v>
       </c>
@@ -9824,6 +10545,9 @@
       <c r="M77">
         <v>7</v>
       </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
       <c r="V77">
         <v>4</v>
       </c>
@@ -9860,6 +10584,9 @@
       <c r="AH77">
         <v>45</v>
       </c>
+      <c r="AI77">
+        <v>0</v>
+      </c>
       <c r="AR77">
         <v>91</v>
       </c>
@@ -9883,10 +10610,4124 @@
       </c>
       <c r="AY77">
         <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:51" ht="17" thickBot="1">
+      <c r="A78" s="1">
+        <v>1</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" s="5">
+        <v>22</v>
+      </c>
+      <c r="G78" s="5">
+        <v>4</v>
+      </c>
+      <c r="H78" s="5">
+        <v>0</v>
+      </c>
+      <c r="I78" s="5">
+        <v>0</v>
+      </c>
+      <c r="J78" s="5">
+        <v>2</v>
+      </c>
+      <c r="K78" s="5">
+        <v>6</v>
+      </c>
+      <c r="L78" s="5">
+        <v>6</v>
+      </c>
+      <c r="M78" s="5">
+        <v>31</v>
+      </c>
+      <c r="N78" s="5">
+        <v>354</v>
+      </c>
+      <c r="O78" s="5">
+        <v>680</v>
+      </c>
+      <c r="P78" s="5">
+        <v>4083</v>
+      </c>
+      <c r="Q78" s="5">
+        <v>18</v>
+      </c>
+      <c r="R78" s="5">
+        <v>23</v>
+      </c>
+      <c r="S78" s="5">
+        <v>40</v>
+      </c>
+      <c r="T78" s="5">
+        <v>175</v>
+      </c>
+      <c r="U78" s="5">
+        <v>1</v>
+      </c>
+      <c r="V78" s="5">
+        <v>0</v>
+      </c>
+      <c r="W78" s="5">
+        <v>0</v>
+      </c>
+      <c r="X78" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z78" s="3">
+        <v>78</v>
+      </c>
+      <c r="AA78" s="3">
+        <v>265</v>
+      </c>
+      <c r="AB78" s="3">
+        <v>4.83</v>
+      </c>
+      <c r="AC78" s="3"/>
+      <c r="AD78" s="3"/>
+      <c r="AE78" s="3"/>
+      <c r="AF78" s="3"/>
+      <c r="AG78" s="3"/>
+      <c r="AH78" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI78" s="3">
+        <v>493</v>
+      </c>
+      <c r="AJ78" s="3">
+        <v>797</v>
+      </c>
+      <c r="AK78" s="3">
+        <v>61.9</v>
+      </c>
+      <c r="AL78" s="3">
+        <v>6625</v>
+      </c>
+      <c r="AM78" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AN78" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="AO78" s="3">
+        <v>52</v>
+      </c>
+      <c r="AP78" s="3">
+        <v>21</v>
+      </c>
+      <c r="AQ78" s="3">
+        <v>147.9</v>
+      </c>
+      <c r="AR78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS78" s="3"/>
+      <c r="AT78" s="3"/>
+      <c r="AU78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV78" s="3">
+        <v>139</v>
+      </c>
+      <c r="AW78" s="3">
+        <v>79</v>
+      </c>
+      <c r="AX78" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AY78" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:51" ht="17" thickBot="1">
+      <c r="A79" s="6">
+        <v>1</v>
+      </c>
+      <c r="B79" s="7">
+        <v>2</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" s="9">
+        <v>22</v>
+      </c>
+      <c r="G79" s="9">
+        <v>9</v>
+      </c>
+      <c r="H79" s="9">
+        <v>3</v>
+      </c>
+      <c r="I79" s="9">
+        <v>6</v>
+      </c>
+      <c r="J79" s="9">
+        <v>9</v>
+      </c>
+      <c r="K79" s="9">
+        <v>78</v>
+      </c>
+      <c r="L79" s="9">
+        <v>78</v>
+      </c>
+      <c r="M79" s="9">
+        <v>135</v>
+      </c>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9">
+        <v>19</v>
+      </c>
+      <c r="T79" s="9">
+        <v>167</v>
+      </c>
+      <c r="U79" s="9">
+        <v>1</v>
+      </c>
+      <c r="V79" s="9">
+        <v>731</v>
+      </c>
+      <c r="W79" s="9">
+        <v>11619</v>
+      </c>
+      <c r="X79" s="9">
+        <v>83</v>
+      </c>
+      <c r="Y79" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z79" s="3">
+        <v>77</v>
+      </c>
+      <c r="AA79" s="3">
+        <v>239</v>
+      </c>
+      <c r="AB79" s="3">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AC79" s="3"/>
+      <c r="AD79" s="3"/>
+      <c r="AE79" s="3"/>
+      <c r="AF79" s="3"/>
+      <c r="AG79" s="3"/>
+      <c r="AH79" s="3">
+        <v>38</v>
+      </c>
+      <c r="AI79" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ79" s="3"/>
+      <c r="AK79" s="3"/>
+      <c r="AL79" s="3"/>
+      <c r="AM79" s="3"/>
+      <c r="AN79" s="3"/>
+      <c r="AO79" s="3"/>
+      <c r="AP79" s="3"/>
+      <c r="AQ79" s="3"/>
+      <c r="AR79" s="3">
+        <v>178</v>
+      </c>
+      <c r="AS79" s="3">
+        <v>2927</v>
+      </c>
+      <c r="AT79" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AU79" s="3">
+        <v>28</v>
+      </c>
+      <c r="AV79" s="3">
+        <v>10</v>
+      </c>
+      <c r="AW79" s="3">
+        <v>40</v>
+      </c>
+      <c r="AX79" s="3">
+        <v>4</v>
+      </c>
+      <c r="AY79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:51" ht="17" thickBot="1">
+      <c r="A80" s="6">
+        <v>1</v>
+      </c>
+      <c r="B80" s="7">
+        <v>7</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" s="9">
+        <v>22</v>
+      </c>
+      <c r="G80" s="9">
+        <v>10</v>
+      </c>
+      <c r="H80" s="9">
+        <v>4</v>
+      </c>
+      <c r="I80" s="9">
+        <v>7</v>
+      </c>
+      <c r="J80" s="9">
+        <v>8</v>
+      </c>
+      <c r="K80" s="9">
+        <v>88</v>
+      </c>
+      <c r="L80" s="9">
+        <v>88</v>
+      </c>
+      <c r="M80" s="9">
+        <v>122</v>
+      </c>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9">
+        <v>2412</v>
+      </c>
+      <c r="T80" s="9">
+        <v>11725</v>
+      </c>
+      <c r="U80" s="9">
+        <v>97</v>
+      </c>
+      <c r="V80" s="9">
+        <v>240</v>
+      </c>
+      <c r="W80" s="9">
+        <v>1944</v>
+      </c>
+      <c r="X80" s="9">
+        <v>5</v>
+      </c>
+      <c r="Y80" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z80" s="3">
+        <v>74</v>
+      </c>
+      <c r="AA80" s="3">
+        <v>217</v>
+      </c>
+      <c r="AB80" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AC80" s="3"/>
+      <c r="AD80" s="3">
+        <v>38.5</v>
+      </c>
+      <c r="AE80" s="3">
+        <v>127</v>
+      </c>
+      <c r="AF80" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG80" s="3">
+        <v>7.09</v>
+      </c>
+      <c r="AH80" s="3">
+        <v>31</v>
+      </c>
+      <c r="AI80" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ80" s="3"/>
+      <c r="AK80" s="3"/>
+      <c r="AL80" s="3"/>
+      <c r="AM80" s="3"/>
+      <c r="AN80" s="3"/>
+      <c r="AO80" s="3"/>
+      <c r="AP80" s="3"/>
+      <c r="AQ80" s="3"/>
+      <c r="AR80" s="3">
+        <v>24</v>
+      </c>
+      <c r="AS80" s="3">
+        <v>198</v>
+      </c>
+      <c r="AT80" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AU80" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV80" s="3">
+        <v>748</v>
+      </c>
+      <c r="AW80" s="3">
+        <v>4041</v>
+      </c>
+      <c r="AX80" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AY80" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:51" ht="17" thickBot="1">
+      <c r="A81" s="6">
+        <v>1</v>
+      </c>
+      <c r="B81" s="7">
+        <v>9</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="9">
+        <v>22</v>
+      </c>
+      <c r="G81" s="9">
+        <v>10</v>
+      </c>
+      <c r="H81" s="9">
+        <v>0</v>
+      </c>
+      <c r="I81" s="9">
+        <v>0</v>
+      </c>
+      <c r="J81" s="9">
+        <v>4</v>
+      </c>
+      <c r="K81" s="9">
+        <v>37</v>
+      </c>
+      <c r="L81" s="9">
+        <v>16</v>
+      </c>
+      <c r="M81" s="9">
+        <v>143</v>
+      </c>
+      <c r="N81" s="9">
+        <v>1</v>
+      </c>
+      <c r="O81" s="9">
+        <v>1</v>
+      </c>
+      <c r="P81" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q81" s="9">
+        <v>0</v>
+      </c>
+      <c r="R81" s="9">
+        <v>0</v>
+      </c>
+      <c r="S81" s="9">
+        <v>44</v>
+      </c>
+      <c r="T81" s="9">
+        <v>341</v>
+      </c>
+      <c r="U81" s="9">
+        <v>2</v>
+      </c>
+      <c r="V81" s="9">
+        <v>279</v>
+      </c>
+      <c r="W81" s="9">
+        <v>3817</v>
+      </c>
+      <c r="X81" s="9">
+        <v>21</v>
+      </c>
+      <c r="Y81" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>71</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>178</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AC81" s="3"/>
+      <c r="AD81" s="3"/>
+      <c r="AE81" s="3"/>
+      <c r="AF81" s="3"/>
+      <c r="AG81" s="3"/>
+      <c r="AH81" s="3">
+        <v>37</v>
+      </c>
+      <c r="AI81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ81" s="3"/>
+      <c r="AK81" s="3"/>
+      <c r="AL81" s="3"/>
+      <c r="AM81" s="3"/>
+      <c r="AN81" s="3"/>
+      <c r="AO81" s="3"/>
+      <c r="AP81" s="3"/>
+      <c r="AQ81" s="3"/>
+      <c r="AR81" s="3">
+        <v>135</v>
+      </c>
+      <c r="AS81" s="3">
+        <v>1943</v>
+      </c>
+      <c r="AT81" s="3">
+        <v>14.4</v>
+      </c>
+      <c r="AU81" s="3">
+        <v>15</v>
+      </c>
+      <c r="AV81" s="3">
+        <v>28</v>
+      </c>
+      <c r="AW81" s="3">
+        <v>213</v>
+      </c>
+      <c r="AX81" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="AY81" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:51" ht="17" thickBot="1">
+      <c r="A82" s="6">
+        <v>1</v>
+      </c>
+      <c r="B82" s="7">
+        <v>12</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" s="9">
+        <v>21</v>
+      </c>
+      <c r="G82" s="9">
+        <v>9</v>
+      </c>
+      <c r="H82" s="9">
+        <v>1</v>
+      </c>
+      <c r="I82" s="9">
+        <v>5</v>
+      </c>
+      <c r="J82" s="9">
+        <v>7</v>
+      </c>
+      <c r="K82" s="9">
+        <v>68</v>
+      </c>
+      <c r="L82" s="9">
+        <v>16</v>
+      </c>
+      <c r="M82" s="9">
+        <v>127</v>
+      </c>
+      <c r="N82" s="9">
+        <v>1</v>
+      </c>
+      <c r="O82" s="9">
+        <v>3</v>
+      </c>
+      <c r="P82" s="9">
+        <v>8</v>
+      </c>
+      <c r="Q82" s="9">
+        <v>1</v>
+      </c>
+      <c r="R82" s="9">
+        <v>0</v>
+      </c>
+      <c r="S82" s="9">
+        <v>2144</v>
+      </c>
+      <c r="T82" s="9">
+        <v>9112</v>
+      </c>
+      <c r="U82" s="9">
+        <v>74</v>
+      </c>
+      <c r="V82" s="9">
+        <v>252</v>
+      </c>
+      <c r="W82" s="9">
+        <v>1979</v>
+      </c>
+      <c r="X82" s="9">
+        <v>9</v>
+      </c>
+      <c r="Y82" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z82" s="3">
+        <v>71</v>
+      </c>
+      <c r="AA82" s="3">
+        <v>215</v>
+      </c>
+      <c r="AB82" s="3">
+        <v>4.46</v>
+      </c>
+      <c r="AC82" s="3">
+        <v>20</v>
+      </c>
+      <c r="AD82" s="3">
+        <v>35.5</v>
+      </c>
+      <c r="AE82" s="3">
+        <v>125</v>
+      </c>
+      <c r="AF82" s="3">
+        <v>4.58</v>
+      </c>
+      <c r="AG82" s="3">
+        <v>7.09</v>
+      </c>
+      <c r="AH82" s="3">
+        <v>42</v>
+      </c>
+      <c r="AI82" s="3">
+        <v>3</v>
+      </c>
+      <c r="AJ82" s="3">
+        <v>4</v>
+      </c>
+      <c r="AK82" s="3">
+        <v>75</v>
+      </c>
+      <c r="AL82" s="3">
+        <v>55</v>
+      </c>
+      <c r="AM82" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="AN82" s="3">
+        <v>23.8</v>
+      </c>
+      <c r="AO82" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP82" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ82" s="3">
+        <v>355.5</v>
+      </c>
+      <c r="AR82" s="3">
+        <v>490</v>
+      </c>
+      <c r="AS82" s="3">
+        <v>3230</v>
+      </c>
+      <c r="AT82" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="AU82" s="3">
+        <v>29</v>
+      </c>
+      <c r="AV82" s="3">
+        <v>68</v>
+      </c>
+      <c r="AW82" s="3">
+        <v>600</v>
+      </c>
+      <c r="AX82" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AY82" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:51" ht="17" thickBot="1">
+      <c r="A83" s="6">
+        <v>1</v>
+      </c>
+      <c r="B83" s="7">
+        <v>22</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F83" s="9">
+        <v>22</v>
+      </c>
+      <c r="G83" s="9">
+        <v>6</v>
+      </c>
+      <c r="H83" s="9">
+        <v>0</v>
+      </c>
+      <c r="I83" s="9">
+        <v>0</v>
+      </c>
+      <c r="J83" s="9">
+        <v>2</v>
+      </c>
+      <c r="K83" s="9">
+        <v>2</v>
+      </c>
+      <c r="L83" s="9">
+        <v>3</v>
+      </c>
+      <c r="M83" s="9">
+        <v>24</v>
+      </c>
+      <c r="N83" s="9">
+        <v>296</v>
+      </c>
+      <c r="O83" s="9">
+        <v>550</v>
+      </c>
+      <c r="P83" s="9">
+        <v>3043</v>
+      </c>
+      <c r="Q83" s="9">
+        <v>12</v>
+      </c>
+      <c r="R83" s="9">
+        <v>17</v>
+      </c>
+      <c r="S83" s="9">
+        <v>44</v>
+      </c>
+      <c r="T83" s="9">
+        <v>185</v>
+      </c>
+      <c r="U83" s="9">
+        <v>1</v>
+      </c>
+      <c r="V83" s="9">
+        <v>1</v>
+      </c>
+      <c r="W83" s="9">
+        <v>18</v>
+      </c>
+      <c r="X83" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>75</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>232</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>24</v>
+      </c>
+      <c r="AD83" s="3"/>
+      <c r="AE83" s="3"/>
+      <c r="AF83" s="3"/>
+      <c r="AG83" s="3"/>
+      <c r="AH83" s="3">
+        <v>49</v>
+      </c>
+      <c r="AI83" s="3">
+        <v>929</v>
+      </c>
+      <c r="AJ83" s="3">
+        <v>1602</v>
+      </c>
+      <c r="AK83" s="3">
+        <v>58</v>
+      </c>
+      <c r="AL83" s="3">
+        <v>11762</v>
+      </c>
+      <c r="AM83" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="AN83" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="AO83" s="3">
+        <v>95</v>
+      </c>
+      <c r="AP83" s="3">
+        <v>39</v>
+      </c>
+      <c r="AQ83" s="3">
+        <v>134.4</v>
+      </c>
+      <c r="AR83" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV83" s="3">
+        <v>254</v>
+      </c>
+      <c r="AW83" s="3">
+        <v>182</v>
+      </c>
+      <c r="AX83" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="AY83" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:51" ht="17" thickBot="1">
+      <c r="A84" s="6">
+        <v>1</v>
+      </c>
+      <c r="B84" s="7">
+        <v>23</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="9">
+        <v>23</v>
+      </c>
+      <c r="G84" s="9">
+        <v>9</v>
+      </c>
+      <c r="H84" s="9">
+        <v>0</v>
+      </c>
+      <c r="I84" s="9">
+        <v>1</v>
+      </c>
+      <c r="J84" s="9">
+        <v>8</v>
+      </c>
+      <c r="K84" s="9">
+        <v>49</v>
+      </c>
+      <c r="L84" s="9">
+        <v>49</v>
+      </c>
+      <c r="M84" s="9">
+        <v>125</v>
+      </c>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9">
+        <v>2</v>
+      </c>
+      <c r="T84" s="9">
+        <v>16</v>
+      </c>
+      <c r="U84" s="9">
+        <v>0</v>
+      </c>
+      <c r="V84" s="9">
+        <v>537</v>
+      </c>
+      <c r="W84" s="9">
+        <v>7208</v>
+      </c>
+      <c r="X84" s="9">
+        <v>44</v>
+      </c>
+      <c r="Y84" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>74</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>221</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>4.51</v>
+      </c>
+      <c r="AC84" s="3"/>
+      <c r="AD84" s="3">
+        <v>33</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>125</v>
+      </c>
+      <c r="AF84" s="3">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AG84" s="3">
+        <v>6.81</v>
+      </c>
+      <c r="AH84" s="3">
+        <v>46</v>
+      </c>
+      <c r="AI84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ84" s="3"/>
+      <c r="AK84" s="3"/>
+      <c r="AL84" s="3"/>
+      <c r="AM84" s="3"/>
+      <c r="AN84" s="3"/>
+      <c r="AO84" s="3"/>
+      <c r="AP84" s="3"/>
+      <c r="AQ84" s="3"/>
+      <c r="AR84" s="3">
+        <v>154</v>
+      </c>
+      <c r="AS84" s="3">
+        <v>2403</v>
+      </c>
+      <c r="AT84" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="AU84" s="3">
+        <v>26</v>
+      </c>
+      <c r="AV84" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW84" s="3">
+        <v>2</v>
+      </c>
+      <c r="AX84" s="3">
+        <v>2</v>
+      </c>
+      <c r="AY84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:51" ht="17" thickBot="1">
+      <c r="A85" s="6">
+        <v>1</v>
+      </c>
+      <c r="B85" s="7">
+        <v>27</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" s="9">
+        <v>23</v>
+      </c>
+      <c r="G85" s="9">
+        <v>8</v>
+      </c>
+      <c r="H85" s="9">
+        <v>0</v>
+      </c>
+      <c r="I85" s="9">
+        <v>0</v>
+      </c>
+      <c r="J85" s="9">
+        <v>1</v>
+      </c>
+      <c r="K85" s="9">
+        <v>26</v>
+      </c>
+      <c r="L85" s="9">
+        <v>25</v>
+      </c>
+      <c r="M85" s="9">
+        <v>103</v>
+      </c>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9">
+        <v>18</v>
+      </c>
+      <c r="T85" s="9">
+        <v>127</v>
+      </c>
+      <c r="U85" s="9">
+        <v>1</v>
+      </c>
+      <c r="V85" s="9">
+        <v>178</v>
+      </c>
+      <c r="W85" s="9">
+        <v>2914</v>
+      </c>
+      <c r="X85" s="9">
+        <v>27</v>
+      </c>
+      <c r="Y85" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>74</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>214</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="AC85" s="3"/>
+      <c r="AD85" s="3">
+        <v>37.5</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>121</v>
+      </c>
+      <c r="AF85" s="3">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="AG85" s="3">
+        <v>6.97</v>
+      </c>
+      <c r="AH85" s="3">
+        <v>37</v>
+      </c>
+      <c r="AI85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ85" s="3"/>
+      <c r="AK85" s="3"/>
+      <c r="AL85" s="3"/>
+      <c r="AM85" s="3"/>
+      <c r="AN85" s="3"/>
+      <c r="AO85" s="3"/>
+      <c r="AP85" s="3"/>
+      <c r="AQ85" s="3"/>
+      <c r="AR85" s="3">
+        <v>125</v>
+      </c>
+      <c r="AS85" s="3">
+        <v>2140</v>
+      </c>
+      <c r="AT85" s="3">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="AU85" s="3">
+        <v>17</v>
+      </c>
+      <c r="AV85" s="3">
+        <v>7</v>
+      </c>
+      <c r="AW85" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX85" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AY85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:51" ht="17" thickBot="1">
+      <c r="A86" s="6">
+        <v>1</v>
+      </c>
+      <c r="B86" s="7">
+        <v>30</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" s="9">
+        <v>21</v>
+      </c>
+      <c r="G86" s="9">
+        <v>4</v>
+      </c>
+      <c r="H86" s="9">
+        <v>0</v>
+      </c>
+      <c r="I86" s="9">
+        <v>0</v>
+      </c>
+      <c r="J86" s="9">
+        <v>0</v>
+      </c>
+      <c r="K86" s="9">
+        <v>7</v>
+      </c>
+      <c r="L86" s="9">
+        <v>7</v>
+      </c>
+      <c r="M86" s="9">
+        <v>25</v>
+      </c>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="9"/>
+      <c r="S86" s="9">
+        <v>4</v>
+      </c>
+      <c r="T86" s="9">
+        <v>13</v>
+      </c>
+      <c r="U86" s="9">
+        <v>0</v>
+      </c>
+      <c r="V86" s="9">
+        <v>51</v>
+      </c>
+      <c r="W86" s="9">
+        <v>558</v>
+      </c>
+      <c r="X86" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y86" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z86" s="3"/>
+      <c r="AA86" s="3"/>
+      <c r="AB86" s="3"/>
+      <c r="AC86" s="3"/>
+      <c r="AD86" s="3"/>
+      <c r="AE86" s="3"/>
+      <c r="AF86" s="3"/>
+      <c r="AG86" s="3"/>
+      <c r="AH86" s="3">
+        <v>40</v>
+      </c>
+      <c r="AI86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ86" s="3"/>
+      <c r="AK86" s="3"/>
+      <c r="AL86" s="3"/>
+      <c r="AM86" s="3"/>
+      <c r="AN86" s="3"/>
+      <c r="AO86" s="3"/>
+      <c r="AP86" s="3"/>
+      <c r="AQ86" s="3"/>
+      <c r="AR86" s="3">
+        <v>141</v>
+      </c>
+      <c r="AS86" s="3">
+        <v>2117</v>
+      </c>
+      <c r="AT86" s="3">
+        <v>15</v>
+      </c>
+      <c r="AU86" s="3">
+        <v>7</v>
+      </c>
+      <c r="AV86" s="3">
+        <v>5</v>
+      </c>
+      <c r="AW86" s="3">
+        <v>20</v>
+      </c>
+      <c r="AX86" s="3">
+        <v>4</v>
+      </c>
+      <c r="AY86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:51" ht="17" thickBot="1">
+      <c r="A87" s="6">
+        <v>1</v>
+      </c>
+      <c r="B87" s="7">
+        <v>32</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87" s="9">
+        <v>23</v>
+      </c>
+      <c r="G87" s="9">
+        <v>5</v>
+      </c>
+      <c r="H87" s="9">
+        <v>0</v>
+      </c>
+      <c r="I87" s="9">
+        <v>0</v>
+      </c>
+      <c r="J87" s="9">
+        <v>1</v>
+      </c>
+      <c r="K87" s="9">
+        <v>16</v>
+      </c>
+      <c r="L87" s="9">
+        <v>16</v>
+      </c>
+      <c r="M87" s="9">
+        <v>40</v>
+      </c>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="9"/>
+      <c r="R87" s="9"/>
+      <c r="S87" s="9"/>
+      <c r="T87" s="9"/>
+      <c r="U87" s="9"/>
+      <c r="V87" s="9">
+        <v>99</v>
+      </c>
+      <c r="W87" s="9">
+        <v>1307</v>
+      </c>
+      <c r="X87" s="9">
+        <v>7</v>
+      </c>
+      <c r="Y87" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>73</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>193</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AC87" s="3"/>
+      <c r="AD87" s="3">
+        <v>38</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>123</v>
+      </c>
+      <c r="AF87" s="3">
+        <v>4.08</v>
+      </c>
+      <c r="AG87" s="3">
+        <v>6.54</v>
+      </c>
+      <c r="AH87" s="3">
+        <v>33</v>
+      </c>
+      <c r="AI87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ87" s="3"/>
+      <c r="AK87" s="3"/>
+      <c r="AL87" s="3"/>
+      <c r="AM87" s="3"/>
+      <c r="AN87" s="3"/>
+      <c r="AO87" s="3"/>
+      <c r="AP87" s="3"/>
+      <c r="AQ87" s="3"/>
+      <c r="AR87" s="3">
+        <v>87</v>
+      </c>
+      <c r="AS87" s="3">
+        <v>1286</v>
+      </c>
+      <c r="AT87" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="AU87" s="3">
+        <v>13</v>
+      </c>
+      <c r="AV87" s="3">
+        <v>3</v>
+      </c>
+      <c r="AW87" s="3">
+        <v>36</v>
+      </c>
+      <c r="AX87" s="3">
+        <v>12</v>
+      </c>
+      <c r="AY87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:51" ht="17" thickBot="1">
+      <c r="A88" s="6">
+        <v>2</v>
+      </c>
+      <c r="B88" s="7">
+        <v>36</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" s="9">
+        <v>23</v>
+      </c>
+      <c r="G88" s="9">
+        <v>6</v>
+      </c>
+      <c r="H88" s="9">
+        <v>0</v>
+      </c>
+      <c r="I88" s="9">
+        <v>0</v>
+      </c>
+      <c r="J88" s="9">
+        <v>1</v>
+      </c>
+      <c r="K88" s="9">
+        <v>12</v>
+      </c>
+      <c r="L88" s="9">
+        <v>4</v>
+      </c>
+      <c r="M88" s="9">
+        <v>34</v>
+      </c>
+      <c r="N88" s="9">
+        <v>449</v>
+      </c>
+      <c r="O88" s="9">
+        <v>755</v>
+      </c>
+      <c r="P88" s="9">
+        <v>5206</v>
+      </c>
+      <c r="Q88" s="9">
+        <v>28</v>
+      </c>
+      <c r="R88" s="9">
+        <v>25</v>
+      </c>
+      <c r="S88" s="9">
+        <v>69</v>
+      </c>
+      <c r="T88" s="9">
+        <v>229</v>
+      </c>
+      <c r="U88" s="9">
+        <v>2</v>
+      </c>
+      <c r="V88" s="9"/>
+      <c r="W88" s="9"/>
+      <c r="X88" s="9"/>
+      <c r="Y88" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>75</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>218</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="AC88" s="3"/>
+      <c r="AD88" s="3">
+        <v>32.5</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>112</v>
+      </c>
+      <c r="AF88" s="3">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AG88" s="3">
+        <v>6.94</v>
+      </c>
+      <c r="AH88" s="3">
+        <v>50</v>
+      </c>
+      <c r="AI88" s="3">
+        <v>964</v>
+      </c>
+      <c r="AJ88" s="3">
+        <v>1565</v>
+      </c>
+      <c r="AK88" s="3">
+        <v>61.6</v>
+      </c>
+      <c r="AL88" s="3">
+        <v>12964</v>
+      </c>
+      <c r="AM88" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AN88" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="AO88" s="3">
+        <v>85</v>
+      </c>
+      <c r="AP88" s="3">
+        <v>31</v>
+      </c>
+      <c r="AQ88" s="3">
+        <v>145.1</v>
+      </c>
+      <c r="AR88" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS88" s="3">
+        <v>8</v>
+      </c>
+      <c r="AT88" s="3">
+        <v>8</v>
+      </c>
+      <c r="AU88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV88" s="3">
+        <v>472</v>
+      </c>
+      <c r="AW88" s="3">
+        <v>751</v>
+      </c>
+      <c r="AX88" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="AY88" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:51" ht="17" thickBot="1">
+      <c r="A89" s="6">
+        <v>2</v>
+      </c>
+      <c r="B89" s="7">
+        <v>40</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" s="9">
+        <v>26</v>
+      </c>
+      <c r="G89" s="9">
+        <v>5</v>
+      </c>
+      <c r="H89" s="9">
+        <v>0</v>
+      </c>
+      <c r="I89" s="9">
+        <v>0</v>
+      </c>
+      <c r="J89" s="9">
+        <v>0</v>
+      </c>
+      <c r="K89" s="9">
+        <v>4</v>
+      </c>
+      <c r="L89" s="9">
+        <v>2</v>
+      </c>
+      <c r="M89" s="9">
+        <v>9</v>
+      </c>
+      <c r="N89" s="9">
+        <v>140</v>
+      </c>
+      <c r="O89" s="9">
+        <v>239</v>
+      </c>
+      <c r="P89" s="9">
+        <v>1417</v>
+      </c>
+      <c r="Q89" s="9">
+        <v>3</v>
+      </c>
+      <c r="R89" s="9">
+        <v>7</v>
+      </c>
+      <c r="S89" s="9">
+        <v>19</v>
+      </c>
+      <c r="T89" s="9">
+        <v>55</v>
+      </c>
+      <c r="U89" s="9">
+        <v>3</v>
+      </c>
+      <c r="V89" s="9"/>
+      <c r="W89" s="9"/>
+      <c r="X89" s="9"/>
+      <c r="Y89" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>74</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>215</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>4.75</v>
+      </c>
+      <c r="AC89" s="3"/>
+      <c r="AD89" s="3">
+        <v>29.5</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>111</v>
+      </c>
+      <c r="AF89" s="3">
+        <v>4.17</v>
+      </c>
+      <c r="AG89" s="3">
+        <v>6.81</v>
+      </c>
+      <c r="AH89" s="3">
+        <v>43</v>
+      </c>
+      <c r="AI89" s="3">
+        <v>885</v>
+      </c>
+      <c r="AJ89" s="3">
+        <v>1418</v>
+      </c>
+      <c r="AK89" s="3">
+        <v>62.4</v>
+      </c>
+      <c r="AL89" s="3">
+        <v>11021</v>
+      </c>
+      <c r="AM89" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="AN89" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="AO89" s="3">
+        <v>79</v>
+      </c>
+      <c r="AP89" s="3">
+        <v>34</v>
+      </c>
+      <c r="AQ89" s="3">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="AR89" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS89" s="3">
+        <v>3</v>
+      </c>
+      <c r="AT89" s="3">
+        <v>3</v>
+      </c>
+      <c r="AU89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV89" s="3">
+        <v>267</v>
+      </c>
+      <c r="AW89" s="3">
+        <v>38</v>
+      </c>
+      <c r="AX89" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AY89" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:51" ht="17" thickBot="1">
+      <c r="A90" s="6">
+        <v>2</v>
+      </c>
+      <c r="B90" s="7">
+        <v>43</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F90" s="9">
+        <v>23</v>
+      </c>
+      <c r="G90" s="9">
+        <v>10</v>
+      </c>
+      <c r="H90" s="9">
+        <v>0</v>
+      </c>
+      <c r="I90" s="9">
+        <v>0</v>
+      </c>
+      <c r="J90" s="9">
+        <v>1</v>
+      </c>
+      <c r="K90" s="9">
+        <v>9</v>
+      </c>
+      <c r="L90" s="9">
+        <v>4</v>
+      </c>
+      <c r="M90" s="9">
+        <v>32</v>
+      </c>
+      <c r="N90" s="9">
+        <v>264</v>
+      </c>
+      <c r="O90" s="9">
+        <v>496</v>
+      </c>
+      <c r="P90" s="9">
+        <v>3157</v>
+      </c>
+      <c r="Q90" s="9">
+        <v>14</v>
+      </c>
+      <c r="R90" s="9">
+        <v>18</v>
+      </c>
+      <c r="S90" s="9">
+        <v>71</v>
+      </c>
+      <c r="T90" s="9">
+        <v>213</v>
+      </c>
+      <c r="U90" s="9">
+        <v>2</v>
+      </c>
+      <c r="V90" s="9"/>
+      <c r="W90" s="9"/>
+      <c r="X90" s="9"/>
+      <c r="Y90" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z90" s="3">
+        <v>75</v>
+      </c>
+      <c r="AA90" s="3">
+        <v>226</v>
+      </c>
+      <c r="AB90" s="3">
+        <v>4.75</v>
+      </c>
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="AE90" s="3">
+        <v>108</v>
+      </c>
+      <c r="AF90" s="3">
+        <v>4.41</v>
+      </c>
+      <c r="AG90" s="3">
+        <v>6.77</v>
+      </c>
+      <c r="AH90" s="3">
+        <v>45</v>
+      </c>
+      <c r="AI90" s="3">
+        <v>543</v>
+      </c>
+      <c r="AJ90" s="3">
+        <v>846</v>
+      </c>
+      <c r="AK90" s="3">
+        <v>64.2</v>
+      </c>
+      <c r="AL90" s="3">
+        <v>6524</v>
+      </c>
+      <c r="AM90" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="AN90" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="AO90" s="3">
+        <v>42</v>
+      </c>
+      <c r="AP90" s="3">
+        <v>28</v>
+      </c>
+      <c r="AQ90" s="3">
+        <v>138.69999999999999</v>
+      </c>
+      <c r="AR90" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS90" s="3">
+        <v>16</v>
+      </c>
+      <c r="AT90" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="AU90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV90" s="3">
+        <v>332</v>
+      </c>
+      <c r="AW90" s="3">
+        <v>1512</v>
+      </c>
+      <c r="AX90" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AY90" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:51" ht="17" thickBot="1">
+      <c r="A91" s="6">
+        <v>2</v>
+      </c>
+      <c r="B91" s="7">
+        <v>44</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" s="9">
+        <v>21</v>
+      </c>
+      <c r="G91" s="9">
+        <v>7</v>
+      </c>
+      <c r="H91" s="9">
+        <v>0</v>
+      </c>
+      <c r="I91" s="9">
+        <v>1</v>
+      </c>
+      <c r="J91" s="9">
+        <v>3</v>
+      </c>
+      <c r="K91" s="9">
+        <v>33</v>
+      </c>
+      <c r="L91" s="9">
+        <v>20</v>
+      </c>
+      <c r="M91" s="9">
+        <v>81</v>
+      </c>
+      <c r="N91" s="9">
+        <v>4</v>
+      </c>
+      <c r="O91" s="9">
+        <v>7</v>
+      </c>
+      <c r="P91" s="9">
+        <v>174</v>
+      </c>
+      <c r="Q91" s="9">
+        <v>0</v>
+      </c>
+      <c r="R91" s="9">
+        <v>0</v>
+      </c>
+      <c r="S91" s="9">
+        <v>4</v>
+      </c>
+      <c r="T91" s="9">
+        <v>9</v>
+      </c>
+      <c r="U91" s="9">
+        <v>0</v>
+      </c>
+      <c r="V91" s="9">
+        <v>243</v>
+      </c>
+      <c r="W91" s="9">
+        <v>3592</v>
+      </c>
+      <c r="X91" s="9">
+        <v>30</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>76</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>4.51</v>
+      </c>
+      <c r="AC91" s="3"/>
+      <c r="AD91" s="3">
+        <v>39.5</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>119</v>
+      </c>
+      <c r="AF91" s="3">
+        <v>4.34</v>
+      </c>
+      <c r="AG91" s="3">
+        <v>7.09</v>
+      </c>
+      <c r="AH91" s="3">
+        <v>24</v>
+      </c>
+      <c r="AI91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ91" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR91" s="3">
+        <v>142</v>
+      </c>
+      <c r="AS91" s="3">
+        <v>2233</v>
+      </c>
+      <c r="AT91" s="3">
+        <v>15.7</v>
+      </c>
+      <c r="AU91" s="3">
+        <v>23</v>
+      </c>
+      <c r="AV91" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW91" s="3">
+        <v>6</v>
+      </c>
+      <c r="AX91" s="3">
+        <v>6</v>
+      </c>
+      <c r="AY91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:51" ht="17" thickBot="1">
+      <c r="A92" s="6">
+        <v>2</v>
+      </c>
+      <c r="B92" s="7">
+        <v>45</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" s="9">
+        <v>21</v>
+      </c>
+      <c r="G92" s="9">
+        <v>4</v>
+      </c>
+      <c r="H92" s="9">
+        <v>0</v>
+      </c>
+      <c r="I92" s="9">
+        <v>0</v>
+      </c>
+      <c r="J92" s="9">
+        <v>0</v>
+      </c>
+      <c r="K92" s="9">
+        <v>4</v>
+      </c>
+      <c r="L92" s="9">
+        <v>4</v>
+      </c>
+      <c r="M92" s="9">
+        <v>32</v>
+      </c>
+      <c r="N92" s="9"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="9"/>
+      <c r="Q92" s="9"/>
+      <c r="R92" s="9"/>
+      <c r="S92" s="9">
+        <v>1</v>
+      </c>
+      <c r="T92" s="9">
+        <v>11</v>
+      </c>
+      <c r="U92" s="9">
+        <v>0</v>
+      </c>
+      <c r="V92" s="9">
+        <v>35</v>
+      </c>
+      <c r="W92" s="9">
+        <v>428</v>
+      </c>
+      <c r="X92" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y92" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>76</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>219</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>4.62</v>
+      </c>
+      <c r="AC92" s="3"/>
+      <c r="AD92" s="3">
+        <v>36.5</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>121</v>
+      </c>
+      <c r="AF92" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="AG92" s="3">
+        <v>7.28</v>
+      </c>
+      <c r="AH92" s="3">
+        <v>38</v>
+      </c>
+      <c r="AI92" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ92" s="3">
+        <v>4</v>
+      </c>
+      <c r="AK92" s="3">
+        <v>25</v>
+      </c>
+      <c r="AL92" s="3">
+        <v>11</v>
+      </c>
+      <c r="AM92" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="AN92" s="3">
+        <v>-8.5</v>
+      </c>
+      <c r="AO92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP92" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ92" s="3">
+        <v>-1.9</v>
+      </c>
+      <c r="AR92" s="3">
+        <v>216</v>
+      </c>
+      <c r="AS92" s="3">
+        <v>3138</v>
+      </c>
+      <c r="AT92" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="AU92" s="3">
+        <v>41</v>
+      </c>
+      <c r="AV92" s="3">
+        <v>3</v>
+      </c>
+      <c r="AW92" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX92" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AY92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:51" ht="17" thickBot="1">
+      <c r="A93" s="6">
+        <v>2</v>
+      </c>
+      <c r="B93" s="7">
+        <v>49</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" s="9">
+        <v>22</v>
+      </c>
+      <c r="G93" s="9">
+        <v>0</v>
+      </c>
+      <c r="H93" s="9">
+        <v>0</v>
+      </c>
+      <c r="I93" s="9">
+        <v>0</v>
+      </c>
+      <c r="J93" s="9">
+        <v>0</v>
+      </c>
+      <c r="K93" s="9">
+        <v>0</v>
+      </c>
+      <c r="L93" s="9">
+        <v>0</v>
+      </c>
+      <c r="M93" s="9">
+        <v>0</v>
+      </c>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="9"/>
+      <c r="Q93" s="9"/>
+      <c r="R93" s="9"/>
+      <c r="S93" s="9">
+        <v>0</v>
+      </c>
+      <c r="T93" s="9">
+        <v>0</v>
+      </c>
+      <c r="U93" s="9">
+        <v>0</v>
+      </c>
+      <c r="V93" s="9">
+        <v>0</v>
+      </c>
+      <c r="W93" s="9">
+        <v>0</v>
+      </c>
+      <c r="X93" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>71</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>203</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>4.45</v>
+      </c>
+      <c r="AC93" s="3"/>
+      <c r="AD93" s="3">
+        <v>38</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>123</v>
+      </c>
+      <c r="AF93" s="3">
+        <v>4.17</v>
+      </c>
+      <c r="AG93" s="3">
+        <v>7</v>
+      </c>
+      <c r="AH93" s="3">
+        <v>37</v>
+      </c>
+      <c r="AI93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ93" s="3"/>
+      <c r="AK93" s="3"/>
+      <c r="AL93" s="3"/>
+      <c r="AM93" s="3"/>
+      <c r="AN93" s="3"/>
+      <c r="AO93" s="3"/>
+      <c r="AP93" s="3"/>
+      <c r="AQ93" s="3"/>
+      <c r="AR93" s="3">
+        <v>30</v>
+      </c>
+      <c r="AS93" s="3">
+        <v>313</v>
+      </c>
+      <c r="AT93" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="AU93" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV93" s="3">
+        <v>520</v>
+      </c>
+      <c r="AW93" s="3">
+        <v>2438</v>
+      </c>
+      <c r="AX93" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="AY93" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:51" ht="17" thickBot="1">
+      <c r="A94" s="6">
+        <v>2</v>
+      </c>
+      <c r="B94" s="7">
+        <v>50</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" s="9">
+        <v>22</v>
+      </c>
+      <c r="G94" s="9">
+        <v>4</v>
+      </c>
+      <c r="H94" s="9">
+        <v>0</v>
+      </c>
+      <c r="I94" s="9">
+        <v>0</v>
+      </c>
+      <c r="J94" s="9">
+        <v>0</v>
+      </c>
+      <c r="K94" s="9">
+        <v>1</v>
+      </c>
+      <c r="L94" s="9">
+        <v>1</v>
+      </c>
+      <c r="M94" s="9">
+        <v>11</v>
+      </c>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9"/>
+      <c r="R94" s="9"/>
+      <c r="S94" s="9">
+        <v>32</v>
+      </c>
+      <c r="T94" s="9">
+        <v>122</v>
+      </c>
+      <c r="U94" s="9">
+        <v>2</v>
+      </c>
+      <c r="V94" s="9">
+        <v>6</v>
+      </c>
+      <c r="W94" s="9">
+        <v>53</v>
+      </c>
+      <c r="X94" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>71</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>230</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>26</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>36</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>127</v>
+      </c>
+      <c r="AF94" s="3">
+        <v>4.16</v>
+      </c>
+      <c r="AG94" s="3">
+        <v>6.96</v>
+      </c>
+      <c r="AH94" s="3">
+        <v>35</v>
+      </c>
+      <c r="AI94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ94" s="3"/>
+      <c r="AK94" s="3"/>
+      <c r="AL94" s="3"/>
+      <c r="AM94" s="3"/>
+      <c r="AN94" s="3"/>
+      <c r="AO94" s="3"/>
+      <c r="AP94" s="3"/>
+      <c r="AQ94" s="3"/>
+      <c r="AR94" s="3">
+        <v>26</v>
+      </c>
+      <c r="AS94" s="3">
+        <v>205</v>
+      </c>
+      <c r="AT94" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="AU94" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV94" s="3">
+        <v>269</v>
+      </c>
+      <c r="AW94" s="3">
+        <v>892</v>
+      </c>
+      <c r="AX94" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="AY94" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:51" ht="17" thickBot="1">
+      <c r="A95" s="6">
+        <v>2</v>
+      </c>
+      <c r="B95" s="7">
+        <v>51</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F95" s="9">
+        <v>22</v>
+      </c>
+      <c r="G95" s="9">
+        <v>6</v>
+      </c>
+      <c r="H95" s="9">
+        <v>0</v>
+      </c>
+      <c r="I95" s="9">
+        <v>1</v>
+      </c>
+      <c r="J95" s="9">
+        <v>1</v>
+      </c>
+      <c r="K95" s="9">
+        <v>23</v>
+      </c>
+      <c r="L95" s="9">
+        <v>21</v>
+      </c>
+      <c r="M95" s="9">
+        <v>64</v>
+      </c>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="9"/>
+      <c r="Q95" s="9"/>
+      <c r="R95" s="9"/>
+      <c r="S95" s="9"/>
+      <c r="T95" s="9"/>
+      <c r="U95" s="9"/>
+      <c r="V95" s="9">
+        <v>245</v>
+      </c>
+      <c r="W95" s="9">
+        <v>2641</v>
+      </c>
+      <c r="X95" s="9">
+        <v>12</v>
+      </c>
+      <c r="Y95" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z95" s="3">
+        <v>73</v>
+      </c>
+      <c r="AA95" s="3">
+        <v>197</v>
+      </c>
+      <c r="AB95" s="3">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3">
+        <v>38</v>
+      </c>
+      <c r="AE95" s="3">
+        <v>120</v>
+      </c>
+      <c r="AF95" s="3">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="AG95" s="3">
+        <v>6.68</v>
+      </c>
+      <c r="AH95" s="3">
+        <v>46</v>
+      </c>
+      <c r="AI95" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ95" s="3"/>
+      <c r="AK95" s="3"/>
+      <c r="AL95" s="3"/>
+      <c r="AM95" s="3"/>
+      <c r="AN95" s="3"/>
+      <c r="AO95" s="3"/>
+      <c r="AP95" s="3"/>
+      <c r="AQ95" s="3"/>
+      <c r="AR95" s="3">
+        <v>190</v>
+      </c>
+      <c r="AS95" s="3">
+        <v>3019</v>
+      </c>
+      <c r="AT95" s="3">
+        <v>15.9</v>
+      </c>
+      <c r="AU95" s="3">
+        <v>22</v>
+      </c>
+      <c r="AV95" s="3">
+        <v>4</v>
+      </c>
+      <c r="AW95" s="3">
+        <v>18</v>
+      </c>
+      <c r="AX95" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="AY95" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:51" ht="17" thickBot="1">
+      <c r="A96" s="6">
+        <v>2</v>
+      </c>
+      <c r="B96" s="7">
+        <v>52</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" s="9">
+        <v>23</v>
+      </c>
+      <c r="G96" s="9">
+        <v>8</v>
+      </c>
+      <c r="H96" s="9">
+        <v>0</v>
+      </c>
+      <c r="I96" s="9">
+        <v>0</v>
+      </c>
+      <c r="J96" s="9">
+        <v>0</v>
+      </c>
+      <c r="K96" s="9">
+        <v>11</v>
+      </c>
+      <c r="L96" s="9">
+        <v>3</v>
+      </c>
+      <c r="M96" s="9">
+        <v>88</v>
+      </c>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
+      <c r="R96" s="9"/>
+      <c r="S96" s="9">
+        <v>221</v>
+      </c>
+      <c r="T96" s="9">
+        <v>828</v>
+      </c>
+      <c r="U96" s="9">
+        <v>0</v>
+      </c>
+      <c r="V96" s="9">
+        <v>143</v>
+      </c>
+      <c r="W96" s="9">
+        <v>1008</v>
+      </c>
+      <c r="X96" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y96" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>74</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>226</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>28</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>34.5</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>122</v>
+      </c>
+      <c r="AF96" s="3">
+        <v>4.22</v>
+      </c>
+      <c r="AG96" s="3">
+        <v>6.88</v>
+      </c>
+      <c r="AH96" s="3">
+        <v>47</v>
+      </c>
+      <c r="AI96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ96" s="3"/>
+      <c r="AK96" s="3"/>
+      <c r="AL96" s="3"/>
+      <c r="AM96" s="3"/>
+      <c r="AN96" s="3"/>
+      <c r="AO96" s="3"/>
+      <c r="AP96" s="3"/>
+      <c r="AQ96" s="3"/>
+      <c r="AR96" s="3">
+        <v>207</v>
+      </c>
+      <c r="AS96" s="3">
+        <v>1868</v>
+      </c>
+      <c r="AT96" s="3">
+        <v>9</v>
+      </c>
+      <c r="AU96" s="3">
+        <v>13</v>
+      </c>
+      <c r="AV96" s="3">
+        <v>678</v>
+      </c>
+      <c r="AW96" s="3">
+        <v>2775</v>
+      </c>
+      <c r="AX96" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AY96" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:51" ht="17" thickBot="1">
+      <c r="A97" s="6">
+        <v>2</v>
+      </c>
+      <c r="B97" s="7">
+        <v>63</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" s="9">
+        <v>21</v>
+      </c>
+      <c r="G97" s="9">
+        <v>6</v>
+      </c>
+      <c r="H97" s="9">
+        <v>0</v>
+      </c>
+      <c r="I97" s="9">
+        <v>0</v>
+      </c>
+      <c r="J97" s="9">
+        <v>1</v>
+      </c>
+      <c r="K97" s="9">
+        <v>16</v>
+      </c>
+      <c r="L97" s="9">
+        <v>16</v>
+      </c>
+      <c r="M97" s="9">
+        <v>54</v>
+      </c>
+      <c r="N97" s="9"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="9"/>
+      <c r="R97" s="9"/>
+      <c r="S97" s="9">
+        <v>355</v>
+      </c>
+      <c r="T97" s="9">
+        <v>1383</v>
+      </c>
+      <c r="U97" s="9">
+        <v>7</v>
+      </c>
+      <c r="V97" s="9">
+        <v>112</v>
+      </c>
+      <c r="W97" s="9">
+        <v>864</v>
+      </c>
+      <c r="X97" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y97" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>70</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>210</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>4.54</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>21</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>37</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>122</v>
+      </c>
+      <c r="AF97" s="3">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="AG97" s="3">
+        <v>7</v>
+      </c>
+      <c r="AH97" s="3">
+        <v>33</v>
+      </c>
+      <c r="AI97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ97" s="3"/>
+      <c r="AK97" s="3"/>
+      <c r="AL97" s="3"/>
+      <c r="AM97" s="3"/>
+      <c r="AN97" s="3"/>
+      <c r="AO97" s="3"/>
+      <c r="AP97" s="3"/>
+      <c r="AQ97" s="3"/>
+      <c r="AR97" s="3">
+        <v>34</v>
+      </c>
+      <c r="AS97" s="3">
+        <v>318</v>
+      </c>
+      <c r="AT97" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="AU97" s="3">
+        <v>2</v>
+      </c>
+      <c r="AV97" s="3">
+        <v>291</v>
+      </c>
+      <c r="AW97" s="3">
+        <v>1431</v>
+      </c>
+      <c r="AX97" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AY97" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:51" ht="17" thickBot="1">
+      <c r="A98" s="6">
+        <v>3</v>
+      </c>
+      <c r="B98" s="7">
+        <v>71</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F98" s="9">
+        <v>23</v>
+      </c>
+      <c r="G98" s="9">
+        <v>5</v>
+      </c>
+      <c r="H98" s="9">
+        <v>0</v>
+      </c>
+      <c r="I98" s="9">
+        <v>0</v>
+      </c>
+      <c r="J98" s="9">
+        <v>0</v>
+      </c>
+      <c r="K98" s="9">
+        <v>4</v>
+      </c>
+      <c r="L98" s="9">
+        <v>3</v>
+      </c>
+      <c r="M98" s="9">
+        <v>36</v>
+      </c>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9"/>
+      <c r="R98" s="9"/>
+      <c r="S98" s="9">
+        <v>61</v>
+      </c>
+      <c r="T98" s="9">
+        <v>230</v>
+      </c>
+      <c r="U98" s="9">
+        <v>0</v>
+      </c>
+      <c r="V98" s="9">
+        <v>47</v>
+      </c>
+      <c r="W98" s="9">
+        <v>362</v>
+      </c>
+      <c r="X98" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>71</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>191</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>4.46</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>26</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>35.5</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>121</v>
+      </c>
+      <c r="AF98" s="3"/>
+      <c r="AG98" s="3"/>
+      <c r="AH98" s="3">
+        <v>48</v>
+      </c>
+      <c r="AI98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ98" s="3"/>
+      <c r="AK98" s="3"/>
+      <c r="AL98" s="3"/>
+      <c r="AM98" s="3"/>
+      <c r="AN98" s="3"/>
+      <c r="AO98" s="3"/>
+      <c r="AP98" s="3"/>
+      <c r="AQ98" s="3"/>
+      <c r="AR98" s="10">
+        <v>114</v>
+      </c>
+      <c r="AS98" s="10">
+        <v>995</v>
+      </c>
+      <c r="AT98" s="10">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AU98" s="10">
+        <v>2</v>
+      </c>
+      <c r="AV98" s="10">
+        <v>497</v>
+      </c>
+      <c r="AW98" s="10">
+        <v>2389</v>
+      </c>
+      <c r="AX98" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AY98" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:51" ht="17" thickBot="1">
+      <c r="A99" s="6">
+        <v>3</v>
+      </c>
+      <c r="B99" s="7">
+        <v>74</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F99" s="9">
+        <v>24</v>
+      </c>
+      <c r="G99" s="9">
+        <v>4</v>
+      </c>
+      <c r="H99" s="9">
+        <v>0</v>
+      </c>
+      <c r="I99" s="9">
+        <v>0</v>
+      </c>
+      <c r="J99" s="9">
+        <v>0</v>
+      </c>
+      <c r="K99" s="9">
+        <v>2</v>
+      </c>
+      <c r="L99" s="9">
+        <v>2</v>
+      </c>
+      <c r="M99" s="9">
+        <v>34</v>
+      </c>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
+      <c r="R99" s="9"/>
+      <c r="S99" s="9">
+        <v>3</v>
+      </c>
+      <c r="T99" s="9">
+        <v>-7</v>
+      </c>
+      <c r="U99" s="9">
+        <v>0</v>
+      </c>
+      <c r="V99" s="9">
+        <v>5</v>
+      </c>
+      <c r="W99" s="9">
+        <v>103</v>
+      </c>
+      <c r="X99" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y99" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>71</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>174</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="AC99" s="3"/>
+      <c r="AD99" s="3"/>
+      <c r="AE99" s="3">
+        <v>123</v>
+      </c>
+      <c r="AF99" s="3">
+        <v>4.21</v>
+      </c>
+      <c r="AG99" s="3">
+        <v>6.85</v>
+      </c>
+      <c r="AH99" s="3">
+        <v>34</v>
+      </c>
+      <c r="AI99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ99" s="3"/>
+      <c r="AK99" s="3"/>
+      <c r="AL99" s="3"/>
+      <c r="AM99" s="3"/>
+      <c r="AN99" s="3"/>
+      <c r="AO99" s="3"/>
+      <c r="AP99" s="3"/>
+      <c r="AQ99" s="3"/>
+      <c r="AR99" s="3">
+        <v>73</v>
+      </c>
+      <c r="AS99" s="3">
+        <v>1144</v>
+      </c>
+      <c r="AT99" s="3">
+        <v>15.7</v>
+      </c>
+      <c r="AU99" s="3">
+        <v>6</v>
+      </c>
+      <c r="AV99" s="3">
+        <v>5</v>
+      </c>
+      <c r="AW99" s="3">
+        <v>79</v>
+      </c>
+      <c r="AX99" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="AY99" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:51" ht="17" thickBot="1">
+      <c r="A100" s="6">
+        <v>3</v>
+      </c>
+      <c r="B100" s="7">
+        <v>75</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" s="9">
+        <v>22</v>
+      </c>
+      <c r="G100" s="9">
+        <v>6</v>
+      </c>
+      <c r="H100" s="9">
+        <v>0</v>
+      </c>
+      <c r="I100" s="9">
+        <v>0</v>
+      </c>
+      <c r="J100" s="9">
+        <v>1</v>
+      </c>
+      <c r="K100" s="9">
+        <v>16</v>
+      </c>
+      <c r="L100" s="9">
+        <v>3</v>
+      </c>
+      <c r="M100" s="9">
+        <v>59</v>
+      </c>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9"/>
+      <c r="R100" s="9"/>
+      <c r="S100" s="9">
+        <v>2</v>
+      </c>
+      <c r="T100" s="9">
+        <v>-14</v>
+      </c>
+      <c r="U100" s="9">
+        <v>0</v>
+      </c>
+      <c r="V100" s="9">
+        <v>167</v>
+      </c>
+      <c r="W100" s="9">
+        <v>2110</v>
+      </c>
+      <c r="X100" s="9">
+        <v>15</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>74</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>199</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>4.38</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>19</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>39</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>127</v>
+      </c>
+      <c r="AF100" s="3">
+        <v>4.28</v>
+      </c>
+      <c r="AG100" s="3">
+        <v>6.83</v>
+      </c>
+      <c r="AH100" s="3">
+        <v>41</v>
+      </c>
+      <c r="AI100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ100" s="3"/>
+      <c r="AK100" s="3"/>
+      <c r="AL100" s="3"/>
+      <c r="AM100" s="3"/>
+      <c r="AN100" s="3"/>
+      <c r="AO100" s="3"/>
+      <c r="AP100" s="3"/>
+      <c r="AQ100" s="3"/>
+      <c r="AR100" s="3">
+        <v>192</v>
+      </c>
+      <c r="AS100" s="3">
+        <v>2110</v>
+      </c>
+      <c r="AT100" s="3">
+        <v>15.7</v>
+      </c>
+      <c r="AU100" s="3">
+        <v>29</v>
+      </c>
+      <c r="AV100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:51" ht="17" thickBot="1">
+      <c r="A101" s="6">
+        <v>3</v>
+      </c>
+      <c r="B101" s="7">
+        <v>76</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F101" s="9">
+        <v>22</v>
+      </c>
+      <c r="G101" s="9">
+        <v>6</v>
+      </c>
+      <c r="H101" s="9">
+        <v>0</v>
+      </c>
+      <c r="I101" s="9">
+        <v>0</v>
+      </c>
+      <c r="J101" s="9">
+        <v>1</v>
+      </c>
+      <c r="K101" s="9">
+        <v>9</v>
+      </c>
+      <c r="L101" s="9">
+        <v>4</v>
+      </c>
+      <c r="M101" s="9">
+        <v>54</v>
+      </c>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="9"/>
+      <c r="R101" s="9"/>
+      <c r="S101" s="9">
+        <v>2</v>
+      </c>
+      <c r="T101" s="9">
+        <v>5</v>
+      </c>
+      <c r="U101" s="9">
+        <v>0</v>
+      </c>
+      <c r="V101" s="9">
+        <v>78</v>
+      </c>
+      <c r="W101" s="9">
+        <v>1043</v>
+      </c>
+      <c r="X101" s="9">
+        <v>9</v>
+      </c>
+      <c r="Y101" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>73</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>204</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>4.32</v>
+      </c>
+      <c r="AC101" s="3"/>
+      <c r="AD101" s="3">
+        <v>37</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>123</v>
+      </c>
+      <c r="AF101" s="3">
+        <v>4.22</v>
+      </c>
+      <c r="AG101" s="3">
+        <v>7.02</v>
+      </c>
+      <c r="AH101" s="3">
+        <v>43</v>
+      </c>
+      <c r="AI101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ101" s="3"/>
+      <c r="AK101" s="3"/>
+      <c r="AL101" s="3"/>
+      <c r="AM101" s="3"/>
+      <c r="AN101" s="3"/>
+      <c r="AO101" s="3"/>
+      <c r="AP101" s="3"/>
+      <c r="AQ101" s="3"/>
+      <c r="AR101" s="3">
+        <v>148</v>
+      </c>
+      <c r="AS101" s="3">
+        <v>2704</v>
+      </c>
+      <c r="AT101" s="3">
+        <v>18.3</v>
+      </c>
+      <c r="AU101" s="3">
+        <v>32</v>
+      </c>
+      <c r="AV101" s="3">
+        <v>3</v>
+      </c>
+      <c r="AW101" s="3">
+        <v>-10</v>
+      </c>
+      <c r="AX101" s="3">
+        <v>-3.3</v>
+      </c>
+      <c r="AY101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:51" ht="17" thickBot="1">
+      <c r="A102" s="6">
+        <v>3</v>
+      </c>
+      <c r="B102" s="7">
+        <v>78</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F102" s="9">
+        <v>23</v>
+      </c>
+      <c r="G102" s="9">
+        <v>9</v>
+      </c>
+      <c r="H102" s="9">
+        <v>0</v>
+      </c>
+      <c r="I102" s="9">
+        <v>0</v>
+      </c>
+      <c r="J102" s="9">
+        <v>5</v>
+      </c>
+      <c r="K102" s="9">
+        <v>45</v>
+      </c>
+      <c r="L102" s="9">
+        <v>43</v>
+      </c>
+      <c r="M102" s="9">
+        <v>136</v>
+      </c>
+      <c r="N102" s="9"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="9"/>
+      <c r="Q102" s="9"/>
+      <c r="R102" s="9"/>
+      <c r="S102" s="9"/>
+      <c r="T102" s="9"/>
+      <c r="U102" s="9"/>
+      <c r="V102" s="9">
+        <v>433</v>
+      </c>
+      <c r="W102" s="9">
+        <v>5861</v>
+      </c>
+      <c r="X102" s="9">
+        <v>51</v>
+      </c>
+      <c r="Y102" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>73</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>207</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>4.54</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>22</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>34</v>
+      </c>
+      <c r="AE102" s="3">
+        <v>119</v>
+      </c>
+      <c r="AF102" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="AG102" s="3">
+        <v>7.06</v>
+      </c>
+      <c r="AH102" s="3">
+        <v>44</v>
+      </c>
+      <c r="AI102" s="3">
+        <v>3</v>
+      </c>
+      <c r="AJ102" s="3">
+        <v>7</v>
+      </c>
+      <c r="AK102" s="3">
+        <v>42.9</v>
+      </c>
+      <c r="AL102" s="3">
+        <v>58</v>
+      </c>
+      <c r="AM102" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AN102" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="AO102" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ102" s="3">
+        <v>159.6</v>
+      </c>
+      <c r="AR102" s="3">
+        <v>126</v>
+      </c>
+      <c r="AS102" s="3">
+        <v>1496</v>
+      </c>
+      <c r="AT102" s="3">
+        <v>11.9</v>
+      </c>
+      <c r="AU102" s="3">
+        <v>12</v>
+      </c>
+      <c r="AV102" s="3">
+        <v>24</v>
+      </c>
+      <c r="AW102" s="3">
+        <v>126</v>
+      </c>
+      <c r="AX102" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="AY102" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:51" ht="17" thickBot="1">
+      <c r="A103" s="6">
+        <v>3</v>
+      </c>
+      <c r="B103" s="7">
+        <v>79</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F103" s="9">
+        <v>22</v>
+      </c>
+      <c r="G103" s="9">
+        <v>5</v>
+      </c>
+      <c r="H103" s="9">
+        <v>0</v>
+      </c>
+      <c r="I103" s="9">
+        <v>0</v>
+      </c>
+      <c r="J103" s="9">
+        <v>2</v>
+      </c>
+      <c r="K103" s="9">
+        <v>16</v>
+      </c>
+      <c r="L103" s="9">
+        <v>15</v>
+      </c>
+      <c r="M103" s="9">
+        <v>44</v>
+      </c>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="9"/>
+      <c r="S103" s="9"/>
+      <c r="T103" s="9"/>
+      <c r="U103" s="9"/>
+      <c r="V103" s="9">
+        <v>134</v>
+      </c>
+      <c r="W103" s="9">
+        <v>1798</v>
+      </c>
+      <c r="X103" s="9">
+        <v>14</v>
+      </c>
+      <c r="Y103" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z103" s="3">
+        <v>74</v>
+      </c>
+      <c r="AA103" s="3">
+        <v>209</v>
+      </c>
+      <c r="AB103" s="3">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AC103" s="3">
+        <v>18</v>
+      </c>
+      <c r="AD103" s="3">
+        <v>36.5</v>
+      </c>
+      <c r="AE103" s="3">
+        <v>121</v>
+      </c>
+      <c r="AF103" s="3">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="AG103" s="3">
+        <v>6.92</v>
+      </c>
+      <c r="AH103" s="3">
+        <v>46</v>
+      </c>
+      <c r="AI103" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ103" s="3"/>
+      <c r="AK103" s="3"/>
+      <c r="AL103" s="3"/>
+      <c r="AM103" s="3"/>
+      <c r="AN103" s="3"/>
+      <c r="AO103" s="3"/>
+      <c r="AP103" s="3"/>
+      <c r="AQ103" s="3"/>
+      <c r="AR103" s="3">
+        <v>184</v>
+      </c>
+      <c r="AS103" s="3">
+        <v>2561</v>
+      </c>
+      <c r="AT103" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="AU103" s="3">
+        <v>17</v>
+      </c>
+      <c r="AV103" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW103" s="3">
+        <v>7</v>
+      </c>
+      <c r="AX103" s="3">
+        <v>7</v>
+      </c>
+      <c r="AY103" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:51" ht="17" thickBot="1">
+      <c r="A104" s="6">
+        <v>3</v>
+      </c>
+      <c r="B104" s="7">
+        <v>80</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F104" s="9">
+        <v>23</v>
+      </c>
+      <c r="G104" s="9">
+        <v>3</v>
+      </c>
+      <c r="H104" s="9">
+        <v>0</v>
+      </c>
+      <c r="I104" s="9">
+        <v>0</v>
+      </c>
+      <c r="J104" s="9">
+        <v>0</v>
+      </c>
+      <c r="K104" s="9">
+        <v>0</v>
+      </c>
+      <c r="L104" s="9">
+        <v>0</v>
+      </c>
+      <c r="M104" s="9">
+        <v>5</v>
+      </c>
+      <c r="N104" s="9"/>
+      <c r="O104" s="9"/>
+      <c r="P104" s="9"/>
+      <c r="Q104" s="9"/>
+      <c r="R104" s="9"/>
+      <c r="S104" s="9"/>
+      <c r="T104" s="9"/>
+      <c r="U104" s="9"/>
+      <c r="V104" s="9">
+        <v>1</v>
+      </c>
+      <c r="W104" s="9">
+        <v>7</v>
+      </c>
+      <c r="X104" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y104" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z104" s="3">
+        <v>73</v>
+      </c>
+      <c r="AA104" s="3">
+        <v>205</v>
+      </c>
+      <c r="AB104" s="3">
+        <v>4.45</v>
+      </c>
+      <c r="AC104" s="3"/>
+      <c r="AD104" s="3">
+        <v>38.5</v>
+      </c>
+      <c r="AE104" s="3">
+        <v>125</v>
+      </c>
+      <c r="AF104" s="3">
+        <v>4.24</v>
+      </c>
+      <c r="AG104" s="3">
+        <v>7.03</v>
+      </c>
+      <c r="AH104" s="3">
+        <v>38</v>
+      </c>
+      <c r="AI104" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ104" s="3"/>
+      <c r="AK104" s="3"/>
+      <c r="AL104" s="3"/>
+      <c r="AM104" s="3"/>
+      <c r="AN104" s="3"/>
+      <c r="AO104" s="3"/>
+      <c r="AP104" s="3"/>
+      <c r="AQ104" s="3"/>
+      <c r="AR104" s="3">
+        <v>72</v>
+      </c>
+      <c r="AS104" s="3">
+        <v>1048</v>
+      </c>
+      <c r="AT104" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="AU104" s="3">
+        <v>8</v>
+      </c>
+      <c r="AV104" s="3">
+        <v>16</v>
+      </c>
+      <c r="AW104" s="3">
+        <v>174</v>
+      </c>
+      <c r="AX104" s="3">
+        <v>10.9</v>
+      </c>
+      <c r="AY104" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:51" ht="17" thickBot="1">
+      <c r="A105" s="6">
+        <v>3</v>
+      </c>
+      <c r="B105" s="7">
+        <v>90</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F105" s="9">
+        <v>21</v>
+      </c>
+      <c r="G105" s="9">
+        <v>3</v>
+      </c>
+      <c r="H105" s="9">
+        <v>0</v>
+      </c>
+      <c r="I105" s="9">
+        <v>0</v>
+      </c>
+      <c r="J105" s="9">
+        <v>0</v>
+      </c>
+      <c r="K105" s="9">
+        <v>0</v>
+      </c>
+      <c r="L105" s="9">
+        <v>0</v>
+      </c>
+      <c r="M105" s="9">
+        <v>14</v>
+      </c>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="9"/>
+      <c r="S105" s="9">
+        <v>14</v>
+      </c>
+      <c r="T105" s="9">
+        <v>25</v>
+      </c>
+      <c r="U105" s="9">
+        <v>2</v>
+      </c>
+      <c r="V105" s="9">
+        <v>6</v>
+      </c>
+      <c r="W105" s="9">
+        <v>42</v>
+      </c>
+      <c r="X105" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y105" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z105" s="3">
+        <v>74</v>
+      </c>
+      <c r="AA105" s="3">
+        <v>233</v>
+      </c>
+      <c r="AB105" s="3">
+        <v>4.68</v>
+      </c>
+      <c r="AC105" s="3"/>
+      <c r="AD105" s="3">
+        <v>31.5</v>
+      </c>
+      <c r="AE105" s="3">
+        <v>108</v>
+      </c>
+      <c r="AF105" s="3">
+        <v>4.72</v>
+      </c>
+      <c r="AG105" s="3">
+        <v>7.39</v>
+      </c>
+      <c r="AH105" s="3">
+        <v>45</v>
+      </c>
+      <c r="AI105" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ105" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK105" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL105" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM105" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN105" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO105" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP105" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ105" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR105" s="3">
+        <v>88</v>
+      </c>
+      <c r="AS105" s="3">
+        <v>799</v>
+      </c>
+      <c r="AT105" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="AU105" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV105" s="3">
+        <v>654</v>
+      </c>
+      <c r="AW105" s="3">
+        <v>3320</v>
+      </c>
+      <c r="AX105" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AY105" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:51" ht="17" thickBot="1">
+      <c r="A106" s="6">
+        <v>3</v>
+      </c>
+      <c r="B106" s="7">
+        <v>92</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F106" s="9">
+        <v>23</v>
+      </c>
+      <c r="G106" s="9">
+        <v>6</v>
+      </c>
+      <c r="H106" s="9">
+        <v>0</v>
+      </c>
+      <c r="I106" s="9">
+        <v>0</v>
+      </c>
+      <c r="J106" s="9">
+        <v>2</v>
+      </c>
+      <c r="K106" s="9">
+        <v>17</v>
+      </c>
+      <c r="L106" s="9">
+        <v>16</v>
+      </c>
+      <c r="M106" s="9">
+        <v>38</v>
+      </c>
+      <c r="N106" s="9">
+        <v>563</v>
+      </c>
+      <c r="O106" s="9">
+        <v>929</v>
+      </c>
+      <c r="P106" s="9">
+        <v>6033</v>
+      </c>
+      <c r="Q106" s="9">
+        <v>26</v>
+      </c>
+      <c r="R106" s="9">
+        <v>30</v>
+      </c>
+      <c r="S106" s="9">
+        <v>78</v>
+      </c>
+      <c r="T106" s="9">
+        <v>330</v>
+      </c>
+      <c r="U106" s="9">
+        <v>3</v>
+      </c>
+      <c r="V106" s="9">
+        <v>0</v>
+      </c>
+      <c r="W106" s="9">
+        <v>0</v>
+      </c>
+      <c r="X106" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y106" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z106" s="3">
+        <v>76</v>
+      </c>
+      <c r="AA106" s="3">
+        <v>231</v>
+      </c>
+      <c r="AB106" s="3">
+        <v>4.76</v>
+      </c>
+      <c r="AC106" s="3">
+        <v>19</v>
+      </c>
+      <c r="AD106" s="3"/>
+      <c r="AE106" s="3"/>
+      <c r="AF106" s="3">
+        <v>4.46</v>
+      </c>
+      <c r="AG106" s="3">
+        <v>7.14</v>
+      </c>
+      <c r="AH106" s="3">
+        <v>35</v>
+      </c>
+      <c r="AI106" s="3">
+        <v>487</v>
+      </c>
+      <c r="AJ106" s="3">
+        <v>865</v>
+      </c>
+      <c r="AK106" s="3">
+        <v>56.3</v>
+      </c>
+      <c r="AL106" s="3">
+        <v>5429</v>
+      </c>
+      <c r="AM106" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="AN106" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AO106" s="3">
+        <v>36</v>
+      </c>
+      <c r="AP106" s="3">
+        <v>33</v>
+      </c>
+      <c r="AQ106" s="3">
+        <v>115.1</v>
+      </c>
+      <c r="AR106" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS106" s="3">
+        <v>-6</v>
+      </c>
+      <c r="AT106" s="3">
+        <v>-6</v>
+      </c>
+      <c r="AU106" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV106" s="3">
+        <v>226</v>
+      </c>
+      <c r="AW106" s="3">
+        <v>199</v>
+      </c>
+      <c r="AX106" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AY106" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:51" ht="17" thickBot="1">
+      <c r="A107" s="6">
+        <v>3</v>
+      </c>
+      <c r="B107" s="7">
+        <v>93</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F107" s="9">
+        <v>23</v>
+      </c>
+      <c r="G107" s="9">
+        <v>4</v>
+      </c>
+      <c r="H107" s="9">
+        <v>0</v>
+      </c>
+      <c r="I107" s="9">
+        <v>0</v>
+      </c>
+      <c r="J107" s="9">
+        <v>0</v>
+      </c>
+      <c r="K107" s="9">
+        <v>2</v>
+      </c>
+      <c r="L107" s="9">
+        <v>2</v>
+      </c>
+      <c r="M107" s="9">
+        <v>50</v>
+      </c>
+      <c r="N107" s="9"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="9"/>
+      <c r="Q107" s="9"/>
+      <c r="R107" s="9"/>
+      <c r="S107" s="9">
+        <v>72</v>
+      </c>
+      <c r="T107" s="9">
+        <v>282</v>
+      </c>
+      <c r="U107" s="9">
+        <v>1</v>
+      </c>
+      <c r="V107" s="9">
+        <v>11</v>
+      </c>
+      <c r="W107" s="9">
+        <v>129</v>
+      </c>
+      <c r="X107" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y107" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z107" s="3">
+        <v>68</v>
+      </c>
+      <c r="AA107" s="3">
+        <v>186</v>
+      </c>
+      <c r="AB107" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AC107" s="3"/>
+      <c r="AD107" s="3">
+        <v>35.5</v>
+      </c>
+      <c r="AE107" s="3"/>
+      <c r="AF107" s="3">
+        <v>4.08</v>
+      </c>
+      <c r="AG107" s="3">
+        <v>6.69</v>
+      </c>
+      <c r="AH107" s="3">
+        <v>33</v>
+      </c>
+      <c r="AI107" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ107" s="3"/>
+      <c r="AK107" s="3"/>
+      <c r="AL107" s="3"/>
+      <c r="AM107" s="3"/>
+      <c r="AN107" s="3"/>
+      <c r="AO107" s="3"/>
+      <c r="AP107" s="3"/>
+      <c r="AQ107" s="3"/>
+      <c r="AR107" s="3">
+        <v>58</v>
+      </c>
+      <c r="AS107" s="3">
+        <v>588</v>
+      </c>
+      <c r="AT107" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="AU107" s="3">
+        <v>5</v>
+      </c>
+      <c r="AV107" s="3">
+        <v>807</v>
+      </c>
+      <c r="AW107" s="3">
+        <v>5164</v>
+      </c>
+      <c r="AX107" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="AY107" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:51" ht="16">
+      <c r="A108" s="6">
+        <v>3</v>
+      </c>
+      <c r="B108" s="7">
+        <v>99</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" s="9">
+        <v>24</v>
+      </c>
+      <c r="G108" s="9">
+        <v>4</v>
+      </c>
+      <c r="H108" s="9">
+        <v>0</v>
+      </c>
+      <c r="I108" s="9">
+        <v>0</v>
+      </c>
+      <c r="J108" s="9">
+        <v>0</v>
+      </c>
+      <c r="K108" s="9">
+        <v>9</v>
+      </c>
+      <c r="L108" s="9">
+        <v>9</v>
+      </c>
+      <c r="M108" s="9">
+        <v>60</v>
+      </c>
+      <c r="N108" s="9"/>
+      <c r="O108" s="9"/>
+      <c r="P108" s="9"/>
+      <c r="Q108" s="9"/>
+      <c r="R108" s="9"/>
+      <c r="S108" s="9">
+        <v>7</v>
+      </c>
+      <c r="T108" s="9">
+        <v>58</v>
+      </c>
+      <c r="U108" s="9">
+        <v>0</v>
+      </c>
+      <c r="V108" s="9">
+        <v>57</v>
+      </c>
+      <c r="W108" s="9">
+        <v>779</v>
+      </c>
+      <c r="X108" s="9">
+        <v>4</v>
+      </c>
+      <c r="Y108" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z108" s="3">
+        <v>73</v>
+      </c>
+      <c r="AA108" s="3">
+        <v>186</v>
+      </c>
+      <c r="AB108" s="3">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="AC108" s="3"/>
+      <c r="AD108" s="3">
+        <v>36.5</v>
+      </c>
+      <c r="AE108" s="3">
+        <v>122</v>
+      </c>
+      <c r="AF108" s="3">
+        <v>4.32</v>
+      </c>
+      <c r="AG108" s="3">
+        <v>6.62</v>
+      </c>
+      <c r="AH108" s="3">
+        <v>48</v>
+      </c>
+      <c r="AI108" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ108" s="3"/>
+      <c r="AK108" s="3"/>
+      <c r="AL108" s="3"/>
+      <c r="AM108" s="3"/>
+      <c r="AN108" s="3"/>
+      <c r="AO108" s="3"/>
+      <c r="AP108" s="3"/>
+      <c r="AQ108" s="3"/>
+      <c r="AR108" s="3">
+        <v>190</v>
+      </c>
+      <c r="AS108" s="3">
+        <v>3218</v>
+      </c>
+      <c r="AT108" s="3">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AU108" s="3">
+        <v>32</v>
+      </c>
+      <c r="AV108" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW108" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX108" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY108" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
